--- a/De-Identification Program/output.xlsx
+++ b/De-Identification Program/output.xlsx
@@ -14,744 +14,753 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="246">
-  <si>
-    <t xml:space="preserve"> [IDETERMINATE] [Study] ID</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> [IDETERMINATE] [Data] [IDETERMINATE] [Access] [IDETERMINATE] [Group]</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> [IDETERMINATE] [How] [IDETERMINATE] [many] [IDETERMINATE] [ED] visits did [IDETERMINATE] [the] [IDETERMINATE] [subject] have [IDETERMINATE] [in] [IDETERMINATE] [the] time period</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> [IDETERMINATE] [ED] Visit 1</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> [IDETERMINATE] [ED] Visit 2</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> [IDETERMINATE] [ED] Visit 3</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> [IDETERMINATE] [ED] Visit 4</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> [IDETERMINATE] [ED] Visit 5</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> [IDETERMINATE] [ED] Visit 6</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Arrival [IDETERMINATE] [Date]</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Arrival Time</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Departure [IDETERMINATE] [Date]</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Departure Time</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Temperature</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> [IDETERMINATE] [Pulse]</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Respiratory [IDETERMINATE] [Rate]</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Systolic [IDETERMINATE] [Blood] Pressure</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Oxygen Saturation</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> [IDETERMINATE] [Was] oxygen supplementation [IDETERMINATE] [given] at this time</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> [IDETERMINATE] [How] [IDETERMINATE] [much] L [IDETERMINATE] [min]</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> What [IDETERMINATE] [was] [IDETERMINATE] [the] [IDETERMINATE] [route]</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Pharyngeal Erythema</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Cervical lymphadenopathy</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Altered mental status [IDETERMINATE] [or] confusion</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> pH</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> [IDETERMINATE] [BUN]</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Sodium</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Glucose</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Hematocrit</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Did [IDETERMINATE] [the] [IDETERMINATE] [subject] receive influenza testing</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> [IDETERMINATE] [How] [IDETERMINATE] [many] influenza tests did [IDETERMINATE] [the] [IDETERMINATE] [subject] [IDETERMINATE] [recieve]</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> [IDETERMINATE] [Test] 1 [IDETERMINATE] [Name]</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> [IDETERMINATE] [Test] 1 Type</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> [IDETERMINATE] [Test] 1 Type [IDETERMINATE] [other] specify</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> [IDETERMINATE] [Test] 1 Result</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> [IDETERMINATE] [Test] 1 Collection [IDETERMINATE] [date]</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> [IDETERMINATE] [Test] 1 Collection time 24 [IDETERMINATE] [hour] [IDETERMINATE] [clock]</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> [IDETERMINATE] [Test] 1 Result [IDETERMINATE] [date]</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> [IDETERMINATE] [Test] 1 Result time 24 [IDETERMINATE] [hour] [IDETERMINATE] [clock]</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> [IDETERMINATE] [Was] influenza typing performed</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> If yes please specify influenza type</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> [IDETERMINATE] [Test] 2 [IDETERMINATE] [Name]</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> [IDETERMINATE] [Test] 2 Type</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> [IDETERMINATE] [Test] 2 Type [IDETERMINATE] [other] specify</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> [IDETERMINATE] [Test] 2 Result</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> [IDETERMINATE] [Test] 2 Collection [IDETERMINATE] [date]</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> [IDETERMINATE] [Test] 2 Collection time 24 [IDETERMINATE] [hour] [IDETERMINATE] [clock]</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> [IDETERMINATE] [Test] 2 Result [IDETERMINATE] [date]</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> [IDETERMINATE] [Test] 2 Result time 24 [IDETERMINATE] [hour] [IDETERMINATE] [clock]</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> [IDETERMINATE] [Test] 3 [IDETERMINATE] [Name]</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> [IDETERMINATE] [Test] 3 Type</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> [IDETERMINATE] [Test] 3 Type [IDETERMINATE] [other] specify</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> [IDETERMINATE] [Test] 3 Result</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> [IDETERMINATE] [Test] 3 Collection [IDETERMINATE] [date]</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> [IDETERMINATE] [Test] 3 Collection time 24 [IDETERMINATE] [hour] [IDETERMINATE] [clock]</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> [IDETERMINATE] [Test] 3 Result [IDETERMINATE] [date]</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> [IDETERMINATE] [Test] 3 Result time 24 [IDETERMINATE] [hour] [IDETERMINATE] [clock]</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> [IDETERMINATE] [Test] 4 [IDETERMINATE] [Name]</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> [IDETERMINATE] [Test] 4 Type</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> [IDETERMINATE] [Test] 4 Type [IDETERMINATE] [other] specify</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> [IDETERMINATE] [Test] 4 Result</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> [IDETERMINATE] [Test] 4 Collection [IDETERMINATE] [date]</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> [IDETERMINATE] [Test] 4 Collection time 24 [IDETERMINATE] [hour] [IDETERMINATE] [clock]</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> [IDETERMINATE] [Test] 4 Result [IDETERMINATE] [date]</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> [IDETERMINATE] [Test] 4 Result time 24 [IDETERMINATE] [hour] [IDETERMINATE] [clock]</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> [IDETERMINATE] [Test] 5 [IDETERMINATE] [Name]</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> [IDETERMINATE] [Test] 5 Type</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> [IDETERMINATE] [Test] 5 Type [IDETERMINATE] [other] specify</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> [IDETERMINATE] [Test] 5 Result</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> [IDETERMINATE] [Test] 5 Collection [IDETERMINATE] [date]</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> [IDETERMINATE] [Test] 5 Collection time 24 [IDETERMINATE] [hour] [IDETERMINATE] [clock]</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> [IDETERMINATE] [Test] 5 Result [IDETERMINATE] [date]</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> [IDETERMINATE] [Test] 5 Result time 24 [IDETERMINATE] [hour] [IDETERMINATE] [clock]</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> [IDETERMINATE] [Test] 6 [IDETERMINATE] [Name]</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> [IDETERMINATE] [Test] 6 Type</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> [IDETERMINATE] [Test] 6 Type [IDETERMINATE] [other] specify</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> [IDETERMINATE] [Test] 6 Result</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> [IDETERMINATE] [Test] 6 Collection [IDETERMINATE] [date]</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> [IDETERMINATE] [Test] 6 Collection time 24 [IDETERMINATE] [hour] [IDETERMINATE] [clock]</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> [IDETERMINATE] [Test] 6 Result [IDETERMINATE] [date]</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> [IDETERMINATE] [Test] 6 Result time 24 [IDETERMINATE] [hour] [IDETERMINATE] [clock]</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> [IDETERMINATE] [Test] 7 [IDETERMINATE] [Name]</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> [IDETERMINATE] [Test] 7 Type</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> [IDETERMINATE] [Test] 7 Type [IDETERMINATE] [other] specify</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> [IDETERMINATE] [Test] 7 Result</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> [IDETERMINATE] [Test] 7 Collection [IDETERMINATE] [date]</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> [IDETERMINATE] [Test] 7 Collection time 24 [IDETERMINATE] [hour] [IDETERMINATE] [clock]</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> [IDETERMINATE] [Test] 7 Result [IDETERMINATE] [date]</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> [IDETERMINATE] [Test] 7 Result time 24 [IDETERMINATE] [hour] [IDETERMINATE] [clock]</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> [IDETERMINATE] [Was] [IDETERMINATE] [the] [IDETERMINATE] [subject] tested [IDETERMINATE] [for] [IDETERMINATE] [any] [IDETERMINATE] [other] viruses</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Respiratory Syncytial [IDETERMINATE] [Virus] RSV</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Parainfluenza 1 2 [IDETERMINATE] [or] 3</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Rhinovirus</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> [IDETERMINATE] [Metapneumovirus]</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Adenovirus</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Did [IDETERMINATE] [the] [IDETERMINATE] [subject] receive [IDETERMINATE] [an] influenza antiviral</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> If yes [IDETERMINATE] [how] [IDETERMINATE] [many] [IDETERMINATE] [antivirals] were received</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Influenza Antiviral 1 [IDETERMINATE] [Name]</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Influenza Antiviral 1 [IDETERMINATE] [Route]</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Influenza Antiviral 1 [IDETERMINATE] [Date] Administered</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Influenza Antiviral 1 Time Administered</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Influenza Antiviral 2 [IDETERMINATE] [Name]</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Influenza Antiviral 2 [IDETERMINATE] [Route]</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Influenza Antiviral 2 [IDETERMINATE] [Date] Administered</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Influenza Antiviral 2 Time Administered</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Did [IDETERMINATE] [the] [IDETERMINATE] [subject] receive a prescription [IDETERMINATE] [for] [IDETERMINATE] [an] influenza antiviral upon discharge</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> [IDETERMINATE] [How] [IDETERMINATE] [Many]</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Antiviral 1</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Antiviral 2</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Did [IDETERMINATE] [the] [IDETERMINATE] [subject] receive [IDETERMINATE] [an] antibiotic this visit</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> If yes [IDETERMINATE] [how] [IDETERMINATE] [many] antibiotics were received</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Antibiotic 1 [IDETERMINATE] [Name]</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Antibiotic 1 [IDETERMINATE] [Route]</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Antibiotic 1 Indication</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Antibiotic 1 [IDETERMINATE] [Date] Administered</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Antibiotic 1 Time Administered</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Antibiotic 2 [IDETERMINATE] [Name]</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Antibiotic 2 [IDETERMINATE] [Route]</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Antibiotic 2 Indication</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Antibiotic 2 [IDETERMINATE] [Date] Administered</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Antibiotic 2 Time Administered</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Antibiotic 3 [IDETERMINATE] [Name]</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Antibiotic 3 [IDETERMINATE] [Route]</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Antibiotic 3 Indication</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Antibiotic 3 [IDETERMINATE] [Date] Administered</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Antibiotic 3 Time Administered</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Antibiotic 4 [IDETERMINATE] [Name]</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Antibiotic 4 [IDETERMINATE] [Route]</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Antibiotic 4 Indication</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Antibiotic 4 [IDETERMINATE] [Date] Administered</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Antibiotic 4 Time Administered</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Antibiotic 5 [IDETERMINATE] [Name]</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Antibiotic 5 [IDETERMINATE] [Route]</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Antibiotic 5 Indication</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Antibiotic 5 [IDETERMINATE] [Date] Administered</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Antibiotic 5 Time Administered</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Did [IDETERMINATE] [the] [IDETERMINATE] [subject] receive a prescription [IDETERMINATE] [for] [IDETERMINATE] [an] antibiotic upon discharge</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> [IDETERMINATE] [How] [IDETERMINATE] [many]</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Discharge Antibiotic 1 [IDETERMINATE] [Name]</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Discharge Antibiotic 1 Indication</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Discharge Antibiotic 2 [IDETERMINATE] [Name]</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Discharge Antibiotic 2 Indication</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Discharge Antibiotic 3 [IDETERMINATE] [Name]</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Discharge Antibiotic 3 Indication</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Did [IDETERMINATE] [the] [IDETERMINATE] [subject] have a [IDETERMINATE] [Chest] X [IDETERMINATE] [ray] [IDETERMINATE] [or] a [IDETERMINATE] [Chest] CT performed [IDETERMINATE] [in] [IDETERMINATE] [the] [IDETERMINATE] [ED]</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Did it [IDETERMINATE] [show] a pulmonary infiltrate</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Did it [IDETERMINATE] [show] consolidation</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Did it [IDETERMINATE] [show] pleural effusions</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Did [IDETERMINATE] [the] radiologist indicate suspicion of pneumonia</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> [IDETERMINATE] [Was] [IDETERMINATE] [the] [IDETERMINATE] [subject] intubated</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Did [IDETERMINATE] [the] [IDETERMINATE] [subject] receive BiPAP [IDETERMINATE] [or] CPAP</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> When [IDETERMINATE] [the] [IDETERMINATE] [subject] [IDETERMINATE] [left] [IDETERMINATE] [the] visit did they require supplemental oxygen</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> If yes [IDETERMINATE] [how] [IDETERMINATE] [much] L [IDETERMINATE] [min]</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Did [IDETERMINATE] [the] [IDETERMINATE] [subject] [IDETERMINATE] [die] at this visit</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> [IDETERMINATE] [Date] of [IDETERMINATE] [Death]</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Influenza</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> [IDETERMINATE] [Viral] Syndrome [IDETERMINATE] [or] Infection</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Pneumonia</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Myocardial Infarction</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> [IDETERMINATE] [Stroke]</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> [IDETERMINATE] [How] [IDETERMINATE] [many] final [IDETERMINATE] [ED] diagnoses did [IDETERMINATE] [the] [IDETERMINATE] [subject] have</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Final [IDETERMINATE] [ED] Diagnosis [IDETERMINATE] [Code] 1</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Final [IDETERMINATE] [ED] Diagnosis [IDETERMINATE] [Code] 2</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Final [IDETERMINATE] [ED] Diagnosis [IDETERMINATE] [Code] 3</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> What [IDETERMINATE] [was] [IDETERMINATE] [the] final [IDETERMINATE] [subject] disposition [IDETERMINATE] [for] this visit</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Specify</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> If this [IDETERMINATE] [subject] [IDETERMINATE] [had] a final disposition of discharge at [IDETERMINATE] [any] time [IDETERMINATE] [during] this visit were they placed [IDETERMINATE] [in] observation</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Complete</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 01 11 A 0001</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> [IDETERMINATE] [JHHS]</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 1</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> [IDETERMINATE] [20[REDACTED]] [IDETERMINATE] [[REDACTED]]</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> None</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> [IDETERMINATE] [[REDACTED]]</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 39 3</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 128</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 20</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 148</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 100</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> [IDETERMINATE] [No]</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> [IDETERMINATE] [Unknown]</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 999</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 15</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 135</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 116</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 42 5</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Yes</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> influenza a b rapid [IDETERMINATE] [NAT]</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> PCR</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Negative</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> N A [IDETERMINATE] [subject] [IDETERMINATE] [not] discharged</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 2</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ceftriaxone</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> [IDETERMINATE] [IV]</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> pneumonia</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> azithromycin</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> N A [IDETERMINATE] [Subject] [IDETERMINATE] [not] discharged</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 3</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> pneumonia of [IDETERMINATE] [the] [IDETERMINATE] [upper] [IDETERMINATE] [lobe] [IDETERMINATE] [due] [IDETERMINATE] [to] infectious organism</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> right [IDETERMINATE] [lower] [IDETERMINATE] [lobe] [IDETERMINATE] [mass]</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> abdominal distention</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Admit</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 01 11 A 0002</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> [IDETERMINATE] [99[REDACTED]] [IDETERMINATE] [[REDACTED]]</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 99 99</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 36 6</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 118</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 18</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 124</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 98</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 8</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 137</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 129</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 35 4</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> screened [IDETERMINATE] [and] [IDETERMINATE] [left]</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> [IDETERMINATE] [Other]</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 01 11 A 0003</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 36 5</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 96</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 155</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 97</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> acute asthma exacerbation unspecified</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Discharge</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 01 11 A 0004</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 38 9</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 108</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 12</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 109</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 45 6</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> [IDETERMINATE] [STUDY] XPERT FLU RSV</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> RESP [IDETERMINATE] [VIRUS] COMPLEX</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> AZITHROMYCIN</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> [IDETERMINATE] [PO]</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> PNEUMONIA</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> CEFTRIAXONE</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> LOBAR PNEUMONIA</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> DEHYDRATION</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 01 11 A 0005</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 35 5</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 74</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 139</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 11</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 141</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 95</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 44 1</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ACUTE BRONCHITIS [IDETERMINATE] [UNPECIFIED] ORGANISM</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="249">
+  <si>
+    <t>Study ID</t>
+  </si>
+  <si>
+    <t>Data Access Group</t>
+  </si>
+  <si>
+    <t>How many ED visits did the subject have in the time period?</t>
+  </si>
+  <si>
+    <t>ED Visit 1:</t>
+  </si>
+  <si>
+    <t>ED Visit 2:</t>
+  </si>
+  <si>
+    <t>ED Visit 3:</t>
+  </si>
+  <si>
+    <t>ED Visit 4:</t>
+  </si>
+  <si>
+    <t>ED Visit 5:</t>
+  </si>
+  <si>
+    <t>ED Visit 6:</t>
+  </si>
+  <si>
+    <t>Arrival Date:</t>
+  </si>
+  <si>
+    <t>Arrival Time:</t>
+  </si>
+  <si>
+    <t>Departure Date:</t>
+  </si>
+  <si>
+    <t>Departure Time:</t>
+  </si>
+  <si>
+    <t>Temperature:</t>
+  </si>
+  <si>
+    <t>Pulse:</t>
+  </si>
+  <si>
+    <t>Respiratory Rate:</t>
+  </si>
+  <si>
+    <t>Systolic Blood Pressure:</t>
+  </si>
+  <si>
+    <t>Oxygen Saturation:</t>
+  </si>
+  <si>
+    <t>Was oxygen supplementation given at this time?</t>
+  </si>
+  <si>
+    <t>How much? (L/min)</t>
+  </si>
+  <si>
+    <t>What was the route?</t>
+  </si>
+  <si>
+    <t>Pharyngeal Erythema?</t>
+  </si>
+  <si>
+    <t>Cervical lymphadenopathy?</t>
+  </si>
+  <si>
+    <t>Altered mental status or confusion?</t>
+  </si>
+  <si>
+    <t>pH:</t>
+  </si>
+  <si>
+    <t>BUN:</t>
+  </si>
+  <si>
+    <t>Sodium:</t>
+  </si>
+  <si>
+    <t>Glucose:</t>
+  </si>
+  <si>
+    <t>Hematocrit:</t>
+  </si>
+  <si>
+    <t>Did the subject receive influenza testing?</t>
+  </si>
+  <si>
+    <t>How many influenza tests did the subject recieve?</t>
+  </si>
+  <si>
+    <t>Test 1 Name</t>
+  </si>
+  <si>
+    <t>Test 1 Type</t>
+  </si>
+  <si>
+    <t>Test 1 Type, other specify</t>
+  </si>
+  <si>
+    <t>Test 1 Result</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Test 1 Collection date </t>
+  </si>
+  <si>
+    <t>Test 1 Collection time (24-hour clock)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Test 1 Result date </t>
+  </si>
+  <si>
+    <t>Test 1 Result time  (24-hour clock)</t>
+  </si>
+  <si>
+    <t>Was influenza typing performed?</t>
+  </si>
+  <si>
+    <t>If yes, please specify influenza type:</t>
+  </si>
+  <si>
+    <t>Test 2 Name</t>
+  </si>
+  <si>
+    <t>Test 2 Type</t>
+  </si>
+  <si>
+    <t>Test 2 Type, other specify</t>
+  </si>
+  <si>
+    <t>Test 2 Result</t>
+  </si>
+  <si>
+    <t>Test 2 Collection date</t>
+  </si>
+  <si>
+    <t>Test 2 Collection time (24-hour clock)</t>
+  </si>
+  <si>
+    <t>Test 2 Result date</t>
+  </si>
+  <si>
+    <t>Test 2 Result time (24-hour clock)</t>
+  </si>
+  <si>
+    <t>Test 3 Name</t>
+  </si>
+  <si>
+    <t>Test 3 Type</t>
+  </si>
+  <si>
+    <t>Test 3 Type, other specify</t>
+  </si>
+  <si>
+    <t>Test 3 Result</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Test 3 Collection date </t>
+  </si>
+  <si>
+    <t>Test 3 Collection time (24-hour clock)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Test 3 Result date </t>
+  </si>
+  <si>
+    <t>Test 3 Result time  (24-hour clock)</t>
+  </si>
+  <si>
+    <t>Test 4 Name</t>
+  </si>
+  <si>
+    <t>Test 4 Type</t>
+  </si>
+  <si>
+    <t>Test 4 Type, other specify</t>
+  </si>
+  <si>
+    <t>Test 4 Result</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Test 4 Collection date </t>
+  </si>
+  <si>
+    <t>Test 4 Collection time (24-hour clock)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Test 4 Result date </t>
+  </si>
+  <si>
+    <t>Test 4 Result time  (24-hour clock)</t>
+  </si>
+  <si>
+    <t>Test 5 Name</t>
+  </si>
+  <si>
+    <t>Test 5 Type</t>
+  </si>
+  <si>
+    <t>Test 5 Type, other specify</t>
+  </si>
+  <si>
+    <t>Test 5 Result</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Test 5 Collection date </t>
+  </si>
+  <si>
+    <t>Test 5 Collection time (24-hour clock)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Test 5 Result date </t>
+  </si>
+  <si>
+    <t>Test 5 Result time  (24-hour clock)</t>
+  </si>
+  <si>
+    <t>Test 6 Name</t>
+  </si>
+  <si>
+    <t>Test 6 Type</t>
+  </si>
+  <si>
+    <t>Test 6 Type, other specify</t>
+  </si>
+  <si>
+    <t>Test 6 Result</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Test 6 Collection date </t>
+  </si>
+  <si>
+    <t>Test 6 Collection time (24-hour clock)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Test 6 Result date </t>
+  </si>
+  <si>
+    <t>Test 6 Result time  (24-hour clock)</t>
+  </si>
+  <si>
+    <t>Test 7 Name</t>
+  </si>
+  <si>
+    <t>Test 7 Type</t>
+  </si>
+  <si>
+    <t>Test 7 Type, other specify</t>
+  </si>
+  <si>
+    <t>Test 7 Result</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Test 7 Collection date </t>
+  </si>
+  <si>
+    <t>Test 7 Collection time (24-hour clock)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Test 7 Result date </t>
+  </si>
+  <si>
+    <t>Test 7 Result time  (24-hour clock)</t>
+  </si>
+  <si>
+    <t>Was the subject tested for any other viruses?</t>
+  </si>
+  <si>
+    <t>Respiratory Syncytial Virus (RSV)</t>
+  </si>
+  <si>
+    <t>Parainfluenza (1, 2, or 3)</t>
+  </si>
+  <si>
+    <t>Rhinovirus</t>
+  </si>
+  <si>
+    <t>Metapneumovirus</t>
+  </si>
+  <si>
+    <t>Adenovirus</t>
+  </si>
+  <si>
+    <t>Did the subject receive an influenza antiviral?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">If yes, how many antivirals were received? </t>
+  </si>
+  <si>
+    <t>Influenza Antiviral 1 Name</t>
+  </si>
+  <si>
+    <t>Influenza Antiviral 1 Route:</t>
+  </si>
+  <si>
+    <t>Influenza Antiviral 1 Date Administered:</t>
+  </si>
+  <si>
+    <t>Influenza Antiviral 1 Time Administered:</t>
+  </si>
+  <si>
+    <t>Influenza Antiviral 2 Name</t>
+  </si>
+  <si>
+    <t>Influenza Antiviral 2 Route:</t>
+  </si>
+  <si>
+    <t>Influenza Antiviral 2 Date Administered:</t>
+  </si>
+  <si>
+    <t>Influenza Antiviral 2 Time Administered:</t>
+  </si>
+  <si>
+    <t>Did the subject receive a prescription for an influenza antiviral upon discharge?</t>
+  </si>
+  <si>
+    <t>How Many?</t>
+  </si>
+  <si>
+    <t>Antiviral 1:</t>
+  </si>
+  <si>
+    <t>Antiviral 2:</t>
+  </si>
+  <si>
+    <t>Did the subject receive an antibiotic this visit?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">If yes, how many antibiotics were received? </t>
+  </si>
+  <si>
+    <t>Antibiotic 1 Name</t>
+  </si>
+  <si>
+    <t>Antibiotic 1 Route:</t>
+  </si>
+  <si>
+    <t>Antibiotic 1 Indication</t>
+  </si>
+  <si>
+    <t>Antibiotic 1 Date Administered:</t>
+  </si>
+  <si>
+    <t>Antibiotic 1 Time Administered:</t>
+  </si>
+  <si>
+    <t>Antibiotic 2 Name</t>
+  </si>
+  <si>
+    <t>Antibiotic 2 Route:</t>
+  </si>
+  <si>
+    <t>Antibiotic 2 Indication</t>
+  </si>
+  <si>
+    <t>Antibiotic 2 Date Administered:</t>
+  </si>
+  <si>
+    <t>Antibiotic 2 Time Administered:</t>
+  </si>
+  <si>
+    <t>Antibiotic 3 Name</t>
+  </si>
+  <si>
+    <t>Antibiotic 3 Route:</t>
+  </si>
+  <si>
+    <t>Antibiotic 3 Indication</t>
+  </si>
+  <si>
+    <t>Antibiotic 3 Date Administered:</t>
+  </si>
+  <si>
+    <t>Antibiotic 3 Time Administered:</t>
+  </si>
+  <si>
+    <t>Antibiotic 4 Name</t>
+  </si>
+  <si>
+    <t>Antibiotic 4 Route:</t>
+  </si>
+  <si>
+    <t>Antibiotic 4 Indication</t>
+  </si>
+  <si>
+    <t>Antibiotic 4 Date Administered:</t>
+  </si>
+  <si>
+    <t>Antibiotic 4 Time Administered:</t>
+  </si>
+  <si>
+    <t>Antibiotic 5 Name</t>
+  </si>
+  <si>
+    <t>Antibiotic 5 Route:</t>
+  </si>
+  <si>
+    <t>Antibiotic 5 Indication</t>
+  </si>
+  <si>
+    <t>Antibiotic 5 Date Administered:</t>
+  </si>
+  <si>
+    <t>Antibiotic 5 Time Administered:</t>
+  </si>
+  <si>
+    <t>Did the subject receive a prescription for an antibiotic upon discharge?</t>
+  </si>
+  <si>
+    <t>How many?</t>
+  </si>
+  <si>
+    <t>Discharge Antibiotic 1 Name:</t>
+  </si>
+  <si>
+    <t>Discharge Antibiotic 1 Indication:</t>
+  </si>
+  <si>
+    <t>Discharge Antibiotic 2 Name:</t>
+  </si>
+  <si>
+    <t>Discharge Antibiotic 2 Indication:</t>
+  </si>
+  <si>
+    <t>Discharge Antibiotic 3 Name:</t>
+  </si>
+  <si>
+    <t>Discharge Antibiotic 3 Indication:</t>
+  </si>
+  <si>
+    <t>Did the subject have a Chest X-ray or a Chest CT performed in the ED?</t>
+  </si>
+  <si>
+    <t>Did it show a pulmonary infiltrate?</t>
+  </si>
+  <si>
+    <t>Did it show consolidation?</t>
+  </si>
+  <si>
+    <t>Did it show pleural effusions?</t>
+  </si>
+  <si>
+    <t>Did the radiologist indicate suspicion of pneumonia?</t>
+  </si>
+  <si>
+    <t>Was the subject intubated?</t>
+  </si>
+  <si>
+    <t>Did the subject receive BiPAP or CPAP?</t>
+  </si>
+  <si>
+    <t>When the subject left the visit, did they require supplemental oxygen?</t>
+  </si>
+  <si>
+    <t>If yes, how much? (L/min)</t>
+  </si>
+  <si>
+    <t>Did the subject die at this visit?</t>
+  </si>
+  <si>
+    <t>Date of Death:</t>
+  </si>
+  <si>
+    <t>Influenza?</t>
+  </si>
+  <si>
+    <t>Viral Syndrome or Infection?</t>
+  </si>
+  <si>
+    <t>Pneumonia?</t>
+  </si>
+  <si>
+    <t>Myocardial Infarction?</t>
+  </si>
+  <si>
+    <t>Stroke?</t>
+  </si>
+  <si>
+    <t>How many final ED diagnoses did the subject have?</t>
+  </si>
+  <si>
+    <t>Final ED Diagnosis Code 1</t>
+  </si>
+  <si>
+    <t>Final ED Diagnosis Code 2</t>
+  </si>
+  <si>
+    <t>Final ED Diagnosis Code 3</t>
+  </si>
+  <si>
+    <t>What was the final subject disposition for this visit?</t>
+  </si>
+  <si>
+    <t>Specify:</t>
+  </si>
+  <si>
+    <t>If this subject had a final disposition of discharge, at any time during this visit were they placed in observation?</t>
+  </si>
+  <si>
+    <t>Complete?</t>
+  </si>
+  <si>
+    <t>01-11-A-0001</t>
+  </si>
+  <si>
+    <t>JHHS</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>20[REDACTED][date] 00:00:00</t>
+  </si>
+  <si>
+    <t>None</t>
+  </si>
+  <si>
+    <t>[REDACTED][date]</t>
+  </si>
+  <si>
+    <t>39.3</t>
+  </si>
+  <si>
+    <t>128</t>
+  </si>
+  <si>
+    <t>20</t>
+  </si>
+  <si>
+    <t>148</t>
+  </si>
+  <si>
+    <t>100</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>Unknown</t>
+  </si>
+  <si>
+    <t>999</t>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
+  <si>
+    <t>135</t>
+  </si>
+  <si>
+    <t>116</t>
+  </si>
+  <si>
+    <t>42.5</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>influenza a/b rapid NAT</t>
+  </si>
+  <si>
+    <t>PCR</t>
+  </si>
+  <si>
+    <t>Negative</t>
+  </si>
+  <si>
+    <t>N/A subject not discharged</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>ceftriaxone</t>
+  </si>
+  <si>
+    <t>IV</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pneumonia </t>
+  </si>
+  <si>
+    <t>azithromycin</t>
+  </si>
+  <si>
+    <t>pneumonia</t>
+  </si>
+  <si>
+    <t>N/A, Subject not discharged</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pneumonia of the upper lobe due to infectious organism </t>
+  </si>
+  <si>
+    <t xml:space="preserve">right lower lobe mass </t>
+  </si>
+  <si>
+    <t>abdominal distention</t>
+  </si>
+  <si>
+    <t>Admit</t>
+  </si>
+  <si>
+    <t>Complete</t>
+  </si>
+  <si>
+    <t>01-11-A-0002</t>
+  </si>
+  <si>
+    <t>99[REDACTED][date] 00:00:00</t>
+  </si>
+  <si>
+    <t>99:99</t>
+  </si>
+  <si>
+    <t>36.6</t>
+  </si>
+  <si>
+    <t>118</t>
+  </si>
+  <si>
+    <t>18</t>
+  </si>
+  <si>
+    <t>124</t>
+  </si>
+  <si>
+    <t>98</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>137</t>
+  </si>
+  <si>
+    <t>129</t>
+  </si>
+  <si>
+    <t>35.4</t>
+  </si>
+  <si>
+    <t>screened and left</t>
+  </si>
+  <si>
+    <t>Other</t>
+  </si>
+  <si>
+    <t xml:space="preserve">screened and left </t>
+  </si>
+  <si>
+    <t>01-11-A-0003</t>
+  </si>
+  <si>
+    <t>36.5</t>
+  </si>
+  <si>
+    <t>96</t>
+  </si>
+  <si>
+    <t>155</t>
+  </si>
+  <si>
+    <t>97</t>
+  </si>
+  <si>
+    <t xml:space="preserve">acute asthma exacerbation unspecified </t>
+  </si>
+  <si>
+    <t>Discharge</t>
+  </si>
+  <si>
+    <t>01-11-A-0004</t>
+  </si>
+  <si>
+    <t>38.9</t>
+  </si>
+  <si>
+    <t>108</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>109</t>
+  </si>
+  <si>
+    <t>45.6</t>
+  </si>
+  <si>
+    <t>STUDY XPERT FLU/RSV</t>
+  </si>
+  <si>
+    <t>RESP VIRUS COMPLEX</t>
+  </si>
+  <si>
+    <t>AZITHROMYCIN</t>
+  </si>
+  <si>
+    <t>PO</t>
+  </si>
+  <si>
+    <t>PNEUMONIA</t>
+  </si>
+  <si>
+    <t>CEFTRIAXONE</t>
+  </si>
+  <si>
+    <t>LOBAR PNEUMONIA</t>
+  </si>
+  <si>
+    <t>DEHYDRATION</t>
+  </si>
+  <si>
+    <t>01-11-A-0005</t>
+  </si>
+  <si>
+    <t>35.5</t>
+  </si>
+  <si>
+    <t>74</t>
+  </si>
+  <si>
+    <t>139</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>141</t>
+  </si>
+  <si>
+    <t>95</t>
+  </si>
+  <si>
+    <t>44.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ACUTE BRONCHITIS UNPECIFIED ORGANISM </t>
   </si>
 </sst>
 </file>
@@ -4583,7 +4592,7 @@
         <v>193</v>
       </c>
       <c r="EB2" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="EC2" t="s">
         <v>171</v>
@@ -4637,7 +4646,7 @@
         <v>172</v>
       </c>
       <c r="ET2" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="EU2" t="s">
         <v>172</v>
@@ -4712,19 +4721,19 @@
         <v>179</v>
       </c>
       <c r="FS2" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="FT2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="FU2" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="FV2" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="FW2" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="FX2" t="s">
         <v>172</v>
@@ -7283,12 +7292,12 @@
         <v>172</v>
       </c>
       <c r="AMR2" t="s">
-        <v>167</v>
+        <v>203</v>
       </c>
     </row>
     <row r="3" spans="1:1032">
       <c r="B3" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="C3" t="s">
         <v>169</v>
@@ -7297,7 +7306,7 @@
         <v>170</v>
       </c>
       <c r="E3" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="F3" t="s">
         <v>172</v>
@@ -7315,10 +7324,10 @@
         <v>172</v>
       </c>
       <c r="K3" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="L3" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="M3" t="s">
         <v>171</v>
@@ -7327,19 +7336,19 @@
         <v>173</v>
       </c>
       <c r="O3" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="P3" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="Q3" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="R3" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="S3" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="T3" t="s">
         <v>179</v>
@@ -7363,16 +7372,16 @@
         <v>181</v>
       </c>
       <c r="AA3" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="AB3" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="AC3" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="AD3" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="AE3" t="s">
         <v>179</v>
@@ -7732,7 +7741,7 @@
         <v>172</v>
       </c>
       <c r="ET3" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="EU3" t="s">
         <v>172</v>
@@ -7810,7 +7819,7 @@
         <v>170</v>
       </c>
       <c r="FT3" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="FU3" t="s">
         <v>172</v>
@@ -7819,10 +7828,10 @@
         <v>172</v>
       </c>
       <c r="FW3" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="FX3" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="FY3" t="s">
         <v>172</v>
@@ -10378,12 +10387,12 @@
         <v>172</v>
       </c>
       <c r="AMR3" t="s">
-        <v>167</v>
+        <v>203</v>
       </c>
     </row>
     <row r="4" spans="1:1032">
       <c r="B4" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="C4" t="s">
         <v>169</v>
@@ -10422,19 +10431,19 @@
         <v>173</v>
       </c>
       <c r="O4" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="P4" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="Q4" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="R4" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="S4" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="T4" t="s">
         <v>179</v>
@@ -10905,7 +10914,7 @@
         <v>170</v>
       </c>
       <c r="FT4" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="FU4" t="s">
         <v>172</v>
@@ -10914,7 +10923,7 @@
         <v>172</v>
       </c>
       <c r="FW4" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="FX4" t="s">
         <v>172</v>
@@ -13473,12 +13482,12 @@
         <v>172</v>
       </c>
       <c r="AMR4" t="s">
-        <v>167</v>
+        <v>203</v>
       </c>
     </row>
     <row r="5" spans="1:1032">
       <c r="B5" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="C5" t="s">
         <v>169</v>
@@ -13517,19 +13526,19 @@
         <v>173</v>
       </c>
       <c r="O5" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="P5" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="Q5" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="R5" t="s">
         <v>175</v>
       </c>
       <c r="S5" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="T5" t="s">
         <v>179</v>
@@ -13553,16 +13562,16 @@
         <v>181</v>
       </c>
       <c r="AA5" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="AB5" t="s">
         <v>183</v>
       </c>
       <c r="AC5" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="AD5" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="AE5" t="s">
         <v>186</v>
@@ -13571,7 +13580,7 @@
         <v>191</v>
       </c>
       <c r="AG5" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="AH5" t="s">
         <v>188</v>
@@ -13601,7 +13610,7 @@
         <v>172</v>
       </c>
       <c r="AQ5" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="AR5" t="s">
         <v>188</v>
@@ -13847,13 +13856,13 @@
         <v>191</v>
       </c>
       <c r="DU5" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="DV5" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="DW5" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="DX5" t="s">
         <v>171</v>
@@ -13862,13 +13871,13 @@
         <v>173</v>
       </c>
       <c r="DZ5" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="EA5" t="s">
         <v>193</v>
       </c>
       <c r="EB5" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="EC5" t="s">
         <v>171</v>
@@ -13928,10 +13937,10 @@
         <v>170</v>
       </c>
       <c r="EV5" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="EW5" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="EX5" t="s">
         <v>172</v>
@@ -14000,16 +14009,16 @@
         <v>191</v>
       </c>
       <c r="FT5" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="FU5" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="FV5" t="s">
         <v>172</v>
       </c>
       <c r="FW5" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="FX5" t="s">
         <v>172</v>
@@ -16568,12 +16577,12 @@
         <v>172</v>
       </c>
       <c r="AMR5" t="s">
-        <v>167</v>
+        <v>203</v>
       </c>
     </row>
     <row r="6" spans="1:1032">
       <c r="B6" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="C6" t="s">
         <v>169</v>
@@ -16612,19 +16621,19 @@
         <v>173</v>
       </c>
       <c r="O6" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="P6" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="Q6" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="R6" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="S6" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="T6" t="s">
         <v>179</v>
@@ -16648,16 +16657,16 @@
         <v>181</v>
       </c>
       <c r="AA6" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="AB6" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="AC6" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="AD6" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="AE6" t="s">
         <v>179</v>
@@ -16942,10 +16951,10 @@
         <v>170</v>
       </c>
       <c r="DU6" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="DV6" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="DW6" t="s">
         <v>181</v>
@@ -17023,7 +17032,7 @@
         <v>170</v>
       </c>
       <c r="EV6" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="EW6" t="s">
         <v>181</v>
@@ -17095,7 +17104,7 @@
         <v>170</v>
       </c>
       <c r="FT6" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="FU6" t="s">
         <v>172</v>
@@ -17104,7 +17113,7 @@
         <v>172</v>
       </c>
       <c r="FW6" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="FX6" t="s">
         <v>172</v>
@@ -19663,7 +19672,7 @@
         <v>172</v>
       </c>
       <c r="AMR6" t="s">
-        <v>167</v>
+        <v>203</v>
       </c>
     </row>
   </sheetData>

--- a/De-Identification Program/output.xlsx
+++ b/De-Identification Program/output.xlsx
@@ -1,55 +1,55 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<s:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <s:workbookPr/>
-  <s:bookViews>
-    <s:workbookView activeTab="0"/>
-  </s:bookViews>
-  <s:sheets>
-    <s:sheet name="Sheet" sheetId="1" r:id="rId1"/>
-  </s:sheets>
-  <s:definedNames/>
-  <s:calcPr calcId="124519" fullCalcOnLoad="1"/>
-</s:workbook>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
+  <bookViews>
+    <workbookView activeTab="0"/>
+  </bookViews>
+  <sheets>
+    <sheet name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
+  </sheets>
+  <definedNames/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+</workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="249">
-  <si>
-    <t>Study ID</t>
-  </si>
-  <si>
-    <t>Data Access Group</t>
-  </si>
-  <si>
-    <t>How many ED visits did the subject have in the time period?</t>
-  </si>
-  <si>
-    <t>ED Visit 1:</t>
-  </si>
-  <si>
-    <t>ED Visit 2:</t>
-  </si>
-  <si>
-    <t>ED Visit 3:</t>
-  </si>
-  <si>
-    <t>ED Visit 4:</t>
-  </si>
-  <si>
-    <t>ED Visit 5:</t>
-  </si>
-  <si>
-    <t>ED Visit 6:</t>
-  </si>
-  <si>
-    <t>Arrival Date:</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="267">
+  <si>
+    <t>[IDETERMINATE][Study] ID</t>
+  </si>
+  <si>
+    <t>[IDETERMINATE][Data] [IDETERMINATE][Access] [IDETERMINATE][Group]</t>
+  </si>
+  <si>
+    <t>[IDETERMINATE][How] [IDETERMINATE][many] [IDETERMINATE][ED] visits did [IDETERMINATE][[IDETERMINATE][the]] [IDETERMINATE][subject] have [IDETERMINATE][in] [IDETERMINATE][[IDETERMINATE][the]] time period?</t>
+  </si>
+  <si>
+    <t>[IDETERMINATE][ED] Visit 1:</t>
+  </si>
+  <si>
+    <t>[IDETERMINATE][ED] Visit 2:</t>
+  </si>
+  <si>
+    <t>[IDETERMINATE][ED] Visit 3:</t>
+  </si>
+  <si>
+    <t>[IDETERMINATE][ED] Visit 4:</t>
+  </si>
+  <si>
+    <t>[IDETERMINATE][ED] Visit 5:</t>
+  </si>
+  <si>
+    <t>[IDETERMINATE][ED] Visit 6:</t>
+  </si>
+  <si>
+    <t>Arrival [IDETERMINATE][Date]:</t>
   </si>
   <si>
     <t>Arrival Time:</t>
   </si>
   <si>
-    <t>Departure Date:</t>
+    <t>Departure [IDETERMINATE][Date]:</t>
   </si>
   <si>
     <t>Departure Time:</t>
@@ -58,25 +58,25 @@
     <t>Temperature:</t>
   </si>
   <si>
-    <t>Pulse:</t>
-  </si>
-  <si>
-    <t>Respiratory Rate:</t>
-  </si>
-  <si>
-    <t>Systolic Blood Pressure:</t>
+    <t>[IDETERMINATE][Pulse]:</t>
+  </si>
+  <si>
+    <t>Respiratory [IDETERMINATE][Rate]:</t>
+  </si>
+  <si>
+    <t>Systolic [IDETERMINATE][Blood] Pressure:</t>
   </si>
   <si>
     <t>Oxygen Saturation:</t>
   </si>
   <si>
-    <t>Was oxygen supplementation given at this time?</t>
-  </si>
-  <si>
-    <t>How much? (L/min)</t>
-  </si>
-  <si>
-    <t>What was the route?</t>
+    <t>[IDETERMINATE][Was] oxygen supplementation [IDETERMINATE][given] at this time?</t>
+  </si>
+  <si>
+    <t>[IDETERMINATE][How] [IDETERMINATE][much]? (L/[IDETERMINATE][min])</t>
+  </si>
+  <si>
+    <t>What [IDETERMINATE][was] [IDETERMINATE][the] [IDETERMINATE][route]?</t>
   </si>
   <si>
     <t>Pharyngeal Erythema?</t>
@@ -85,13 +85,13 @@
     <t>Cervical lymphadenopathy?</t>
   </si>
   <si>
-    <t>Altered mental status or confusion?</t>
+    <t>Altered mental status [IDETERMINATE][or] confusion?</t>
   </si>
   <si>
     <t>pH:</t>
   </si>
   <si>
-    <t>BUN:</t>
+    <t>[IDETERMINATE][BUN]:</t>
   </si>
   <si>
     <t>Sodium:</t>
@@ -103,238 +103,238 @@
     <t>Hematocrit:</t>
   </si>
   <si>
-    <t>Did the subject receive influenza testing?</t>
-  </si>
-  <si>
-    <t>How many influenza tests did the subject recieve?</t>
-  </si>
-  <si>
-    <t>Test 1 Name</t>
-  </si>
-  <si>
-    <t>Test 1 Type</t>
-  </si>
-  <si>
-    <t>Test 1 Type, other specify</t>
-  </si>
-  <si>
-    <t>Test 1 Result</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Test 1 Collection date </t>
-  </si>
-  <si>
-    <t>Test 1 Collection time (24-hour clock)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Test 1 Result date </t>
-  </si>
-  <si>
-    <t>Test 1 Result time  (24-hour clock)</t>
-  </si>
-  <si>
-    <t>Was influenza typing performed?</t>
+    <t>Did [IDETERMINATE][the] [IDETERMINATE][subject] receive influenza testing?</t>
+  </si>
+  <si>
+    <t>[IDETERMINATE][How] [IDETERMINATE][many] influenza tests did [IDETERMINATE][the] [IDETERMINATE][subject] [IDETERMINATE][recieve]?</t>
+  </si>
+  <si>
+    <t>[IDETERMINATE][Test] 1 [IDETERMINATE][Name]</t>
+  </si>
+  <si>
+    <t>[IDETERMINATE][Test] 1 Type</t>
+  </si>
+  <si>
+    <t>[IDETERMINATE][Test] 1 Type, [IDETERMINATE][other] specify</t>
+  </si>
+  <si>
+    <t>[IDETERMINATE][Test] 1 Result</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[IDETERMINATE][Test] 1 Collection [IDETERMINATE][date] </t>
+  </si>
+  <si>
+    <t>[IDETERMINATE][Test] 1 Collection time (24-[IDETERMINATE][hour] [IDETERMINATE][clock])</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[IDETERMINATE][Test] 1 Result [IDETERMINATE][date] </t>
+  </si>
+  <si>
+    <t>[IDETERMINATE][Test] 1 Result time  (24-[IDETERMINATE][hour] [IDETERMINATE][clock])</t>
+  </si>
+  <si>
+    <t>[IDETERMINATE][Was] influenza typing performed?</t>
   </si>
   <si>
     <t>If yes, please specify influenza type:</t>
   </si>
   <si>
-    <t>Test 2 Name</t>
-  </si>
-  <si>
-    <t>Test 2 Type</t>
-  </si>
-  <si>
-    <t>Test 2 Type, other specify</t>
-  </si>
-  <si>
-    <t>Test 2 Result</t>
-  </si>
-  <si>
-    <t>Test 2 Collection date</t>
-  </si>
-  <si>
-    <t>Test 2 Collection time (24-hour clock)</t>
-  </si>
-  <si>
-    <t>Test 2 Result date</t>
-  </si>
-  <si>
-    <t>Test 2 Result time (24-hour clock)</t>
-  </si>
-  <si>
-    <t>Test 3 Name</t>
-  </si>
-  <si>
-    <t>Test 3 Type</t>
-  </si>
-  <si>
-    <t>Test 3 Type, other specify</t>
-  </si>
-  <si>
-    <t>Test 3 Result</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Test 3 Collection date </t>
-  </si>
-  <si>
-    <t>Test 3 Collection time (24-hour clock)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Test 3 Result date </t>
-  </si>
-  <si>
-    <t>Test 3 Result time  (24-hour clock)</t>
-  </si>
-  <si>
-    <t>Test 4 Name</t>
-  </si>
-  <si>
-    <t>Test 4 Type</t>
-  </si>
-  <si>
-    <t>Test 4 Type, other specify</t>
-  </si>
-  <si>
-    <t>Test 4 Result</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Test 4 Collection date </t>
-  </si>
-  <si>
-    <t>Test 4 Collection time (24-hour clock)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Test 4 Result date </t>
-  </si>
-  <si>
-    <t>Test 4 Result time  (24-hour clock)</t>
-  </si>
-  <si>
-    <t>Test 5 Name</t>
-  </si>
-  <si>
-    <t>Test 5 Type</t>
-  </si>
-  <si>
-    <t>Test 5 Type, other specify</t>
-  </si>
-  <si>
-    <t>Test 5 Result</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Test 5 Collection date </t>
-  </si>
-  <si>
-    <t>Test 5 Collection time (24-hour clock)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Test 5 Result date </t>
-  </si>
-  <si>
-    <t>Test 5 Result time  (24-hour clock)</t>
-  </si>
-  <si>
-    <t>Test 6 Name</t>
-  </si>
-  <si>
-    <t>Test 6 Type</t>
-  </si>
-  <si>
-    <t>Test 6 Type, other specify</t>
-  </si>
-  <si>
-    <t>Test 6 Result</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Test 6 Collection date </t>
-  </si>
-  <si>
-    <t>Test 6 Collection time (24-hour clock)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Test 6 Result date </t>
-  </si>
-  <si>
-    <t>Test 6 Result time  (24-hour clock)</t>
-  </si>
-  <si>
-    <t>Test 7 Name</t>
-  </si>
-  <si>
-    <t>Test 7 Type</t>
-  </si>
-  <si>
-    <t>Test 7 Type, other specify</t>
-  </si>
-  <si>
-    <t>Test 7 Result</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Test 7 Collection date </t>
-  </si>
-  <si>
-    <t>Test 7 Collection time (24-hour clock)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Test 7 Result date </t>
-  </si>
-  <si>
-    <t>Test 7 Result time  (24-hour clock)</t>
-  </si>
-  <si>
-    <t>Was the subject tested for any other viruses?</t>
-  </si>
-  <si>
-    <t>Respiratory Syncytial Virus (RSV)</t>
-  </si>
-  <si>
-    <t>Parainfluenza (1, 2, or 3)</t>
+    <t>[IDETERMINATE][Test] 2 [IDETERMINATE][Name]</t>
+  </si>
+  <si>
+    <t>[IDETERMINATE][Test] 2 Type</t>
+  </si>
+  <si>
+    <t>[IDETERMINATE][Test] 2 Type, [IDETERMINATE][other] specify</t>
+  </si>
+  <si>
+    <t>[IDETERMINATE][Test] 2 Result</t>
+  </si>
+  <si>
+    <t>[IDETERMINATE][Test] 2 Collection [IDETERMINATE][date]</t>
+  </si>
+  <si>
+    <t>[IDETERMINATE][Test] 2 Collection time (24-[IDETERMINATE][hour] [IDETERMINATE][clock])</t>
+  </si>
+  <si>
+    <t>[IDETERMINATE][Test] 2 Result [IDETERMINATE][date]</t>
+  </si>
+  <si>
+    <t>[IDETERMINATE][Test] 2 Result time (24-[IDETERMINATE][hour] [IDETERMINATE][clock])</t>
+  </si>
+  <si>
+    <t>[IDETERMINATE][Test] 3 [IDETERMINATE][Name]</t>
+  </si>
+  <si>
+    <t>[IDETERMINATE][Test] 3 Type</t>
+  </si>
+  <si>
+    <t>[IDETERMINATE][Test] 3 Type, [IDETERMINATE][other] specify</t>
+  </si>
+  <si>
+    <t>[IDETERMINATE][Test] 3 Result</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[IDETERMINATE][Test] 3 Collection [IDETERMINATE][date] </t>
+  </si>
+  <si>
+    <t>[IDETERMINATE][Test] 3 Collection time (24-[IDETERMINATE][hour] [IDETERMINATE][clock])</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[IDETERMINATE][Test] 3 Result [IDETERMINATE][date] </t>
+  </si>
+  <si>
+    <t>[IDETERMINATE][Test] 3 Result time  (24-[IDETERMINATE][hour] [IDETERMINATE][clock])</t>
+  </si>
+  <si>
+    <t>[IDETERMINATE][Test] 4 [IDETERMINATE][Name]</t>
+  </si>
+  <si>
+    <t>[IDETERMINATE][Test] 4 Type</t>
+  </si>
+  <si>
+    <t>[IDETERMINATE][Test] 4 Type, [IDETERMINATE][other] specify</t>
+  </si>
+  <si>
+    <t>[IDETERMINATE][Test] 4 Result</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[IDETERMINATE][Test] 4 Collection [IDETERMINATE][date] </t>
+  </si>
+  <si>
+    <t>[IDETERMINATE][Test] 4 Collection time (24-[IDETERMINATE][hour] [IDETERMINATE][clock])</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[IDETERMINATE][Test] 4 Result [IDETERMINATE][date] </t>
+  </si>
+  <si>
+    <t>[IDETERMINATE][Test] 4 Result time  (24-[IDETERMINATE][hour] [IDETERMINATE][clock])</t>
+  </si>
+  <si>
+    <t>[IDETERMINATE][Test] 5 [IDETERMINATE][Name]</t>
+  </si>
+  <si>
+    <t>[IDETERMINATE][Test] 5 Type</t>
+  </si>
+  <si>
+    <t>[IDETERMINATE][Test] 5 Type, [IDETERMINATE][other] specify</t>
+  </si>
+  <si>
+    <t>[IDETERMINATE][Test] 5 Result</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[IDETERMINATE][Test] 5 Collection [IDETERMINATE][date] </t>
+  </si>
+  <si>
+    <t>[IDETERMINATE][Test] 5 Collection time (24-[IDETERMINATE][hour] [IDETERMINATE][clock])</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[IDETERMINATE][Test] 5 Result [IDETERMINATE][date] </t>
+  </si>
+  <si>
+    <t>[IDETERMINATE][Test] 5 Result time  (24-[IDETERMINATE][hour] [IDETERMINATE][clock])</t>
+  </si>
+  <si>
+    <t>[IDETERMINATE][Test] 6 [IDETERMINATE][Name]</t>
+  </si>
+  <si>
+    <t>[IDETERMINATE][Test] 6 Type</t>
+  </si>
+  <si>
+    <t>[IDETERMINATE][Test] 6 Type, [IDETERMINATE][other] specify</t>
+  </si>
+  <si>
+    <t>[IDETERMINATE][Test] 6 Result</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[IDETERMINATE][Test] 6 Collection [IDETERMINATE][date] </t>
+  </si>
+  <si>
+    <t>[IDETERMINATE][Test] 6 Collection time (24-[IDETERMINATE][hour] [IDETERMINATE][clock])</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[IDETERMINATE][Test] 6 Result [IDETERMINATE][date] </t>
+  </si>
+  <si>
+    <t>[IDETERMINATE][Test] 6 Result time  (24-[IDETERMINATE][hour] [IDETERMINATE][clock])</t>
+  </si>
+  <si>
+    <t>[IDETERMINATE][Test] 7 [IDETERMINATE][Name]</t>
+  </si>
+  <si>
+    <t>[IDETERMINATE][Test] 7 Type</t>
+  </si>
+  <si>
+    <t>[IDETERMINATE][Test] 7 Type, [IDETERMINATE][other] specify</t>
+  </si>
+  <si>
+    <t>[IDETERMINATE][Test] 7 Result</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[IDETERMINATE][Test] 7 Collection [IDETERMINATE][date] </t>
+  </si>
+  <si>
+    <t>[IDETERMINATE][Test] 7 Collection time (24-[IDETERMINATE][hour] [IDETERMINATE][clock])</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[IDETERMINATE][Test] 7 Result [IDETERMINATE][date] </t>
+  </si>
+  <si>
+    <t>[IDETERMINATE][Test] 7 Result time  (24-[IDETERMINATE][hour] [IDETERMINATE][clock])</t>
+  </si>
+  <si>
+    <t>[IDETERMINATE][Was] [IDETERMINATE][the] [IDETERMINATE][subject] tested [IDETERMINATE][for] [IDETERMINATE][any] o[IDETERMINATE][the]r viruses?</t>
+  </si>
+  <si>
+    <t>Respiratory Syncytial [IDETERMINATE][Virus] (RSV)</t>
+  </si>
+  <si>
+    <t>Parainfluenza (1, 2, [IDETERMINATE][or] 3)</t>
   </si>
   <si>
     <t>Rhinovirus</t>
   </si>
   <si>
-    <t>Metapneumovirus</t>
+    <t>[IDETERMINATE][Metapneumovirus]</t>
   </si>
   <si>
     <t>Adenovirus</t>
   </si>
   <si>
-    <t>Did the subject receive an influenza antiviral?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">If yes, how many antivirals were received? </t>
-  </si>
-  <si>
-    <t>Influenza Antiviral 1 Name</t>
-  </si>
-  <si>
-    <t>Influenza Antiviral 1 Route:</t>
-  </si>
-  <si>
-    <t>Influenza Antiviral 1 Date Administered:</t>
+    <t>Did [IDETERMINATE][the] [IDETERMINATE][subject] receive [IDETERMINATE][an] influenza [IDETERMINATE][an]tiviral?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">If yes, [IDETERMINATE][how] [IDETERMINATE][many] [IDETERMINATE][antivirals] were received? </t>
+  </si>
+  <si>
+    <t>Influenza Antiviral 1 [IDETERMINATE][Name]</t>
+  </si>
+  <si>
+    <t>Influenza Antiviral 1 [IDETERMINATE][Route]:</t>
+  </si>
+  <si>
+    <t>Influenza Antiviral 1 [IDETERMINATE][Date] Administered:</t>
   </si>
   <si>
     <t>Influenza Antiviral 1 Time Administered:</t>
   </si>
   <si>
-    <t>Influenza Antiviral 2 Name</t>
-  </si>
-  <si>
-    <t>Influenza Antiviral 2 Route:</t>
-  </si>
-  <si>
-    <t>Influenza Antiviral 2 Date Administered:</t>
+    <t>Influenza Antiviral 2 [IDETERMINATE][Name]</t>
+  </si>
+  <si>
+    <t>Influenza Antiviral 2 [IDETERMINATE][Route]:</t>
+  </si>
+  <si>
+    <t>Influenza Antiviral 2 [IDETERMINATE][Date] Administered:</t>
   </si>
   <si>
     <t>Influenza Antiviral 2 Time Administered:</t>
   </si>
   <si>
-    <t>Did the subject receive a prescription for an influenza antiviral upon discharge?</t>
-  </si>
-  <si>
-    <t>How Many?</t>
+    <t>Did [IDETERMINATE][the] [IDETERMINATE][subject] receive a prescription [IDETERMINATE][for] [IDETERMINATE][an] influenza [IDETERMINATE][an]tiviral upon discharge?</t>
+  </si>
+  <si>
+    <t>[IDETERMINATE][How] [IDETERMINATE][Many]?</t>
   </si>
   <si>
     <t>Antiviral 1:</t>
@@ -343,148 +343,148 @@
     <t>Antiviral 2:</t>
   </si>
   <si>
-    <t>Did the subject receive an antibiotic this visit?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">If yes, how many antibiotics were received? </t>
-  </si>
-  <si>
-    <t>Antibiotic 1 Name</t>
-  </si>
-  <si>
-    <t>Antibiotic 1 Route:</t>
+    <t>Did [IDETERMINATE][the] [IDETERMINATE][subject] receive [IDETERMINATE][an] [IDETERMINATE][an]tibiotic this visit?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">If yes, [IDETERMINATE][how] [IDETERMINATE][many] antibiotics were received? </t>
+  </si>
+  <si>
+    <t>Antibiotic 1 [IDETERMINATE][Name]</t>
+  </si>
+  <si>
+    <t>Antibiotic 1 [IDETERMINATE][Route]:</t>
   </si>
   <si>
     <t>Antibiotic 1 Indication</t>
   </si>
   <si>
-    <t>Antibiotic 1 Date Administered:</t>
+    <t>Antibiotic 1 [IDETERMINATE][Date] Administered:</t>
   </si>
   <si>
     <t>Antibiotic 1 Time Administered:</t>
   </si>
   <si>
-    <t>Antibiotic 2 Name</t>
-  </si>
-  <si>
-    <t>Antibiotic 2 Route:</t>
+    <t>Antibiotic 2 [IDETERMINATE][Name]</t>
+  </si>
+  <si>
+    <t>Antibiotic 2 [IDETERMINATE][Route]:</t>
   </si>
   <si>
     <t>Antibiotic 2 Indication</t>
   </si>
   <si>
-    <t>Antibiotic 2 Date Administered:</t>
+    <t>Antibiotic 2 [IDETERMINATE][Date] Administered:</t>
   </si>
   <si>
     <t>Antibiotic 2 Time Administered:</t>
   </si>
   <si>
-    <t>Antibiotic 3 Name</t>
-  </si>
-  <si>
-    <t>Antibiotic 3 Route:</t>
+    <t>Antibiotic 3 [IDETERMINATE][Name]</t>
+  </si>
+  <si>
+    <t>Antibiotic 3 [IDETERMINATE][Route]:</t>
   </si>
   <si>
     <t>Antibiotic 3 Indication</t>
   </si>
   <si>
-    <t>Antibiotic 3 Date Administered:</t>
+    <t>Antibiotic 3 [IDETERMINATE][Date] Administered:</t>
   </si>
   <si>
     <t>Antibiotic 3 Time Administered:</t>
   </si>
   <si>
-    <t>Antibiotic 4 Name</t>
-  </si>
-  <si>
-    <t>Antibiotic 4 Route:</t>
+    <t>Antibiotic 4 [IDETERMINATE][Name]</t>
+  </si>
+  <si>
+    <t>Antibiotic 4 [IDETERMINATE][Route]:</t>
   </si>
   <si>
     <t>Antibiotic 4 Indication</t>
   </si>
   <si>
-    <t>Antibiotic 4 Date Administered:</t>
+    <t>Antibiotic 4 [IDETERMINATE][Date] Administered:</t>
   </si>
   <si>
     <t>Antibiotic 4 Time Administered:</t>
   </si>
   <si>
-    <t>Antibiotic 5 Name</t>
-  </si>
-  <si>
-    <t>Antibiotic 5 Route:</t>
+    <t>Antibiotic 5 [IDETERMINATE][Name]</t>
+  </si>
+  <si>
+    <t>Antibiotic 5 [IDETERMINATE][Route]:</t>
   </si>
   <si>
     <t>Antibiotic 5 Indication</t>
   </si>
   <si>
-    <t>Antibiotic 5 Date Administered:</t>
+    <t>Antibiotic 5 [IDETERMINATE][Date] Administered:</t>
   </si>
   <si>
     <t>Antibiotic 5 Time Administered:</t>
   </si>
   <si>
-    <t>Did the subject receive a prescription for an antibiotic upon discharge?</t>
-  </si>
-  <si>
-    <t>How many?</t>
-  </si>
-  <si>
-    <t>Discharge Antibiotic 1 Name:</t>
+    <t>Did [IDETERMINATE][the] [IDETERMINATE][subject] receive a prescription [IDETERMINATE][for] [IDETERMINATE][an] [IDETERMINATE][an]tibiotic upon discharge?</t>
+  </si>
+  <si>
+    <t>[IDETERMINATE][How] [IDETERMINATE][many]?</t>
+  </si>
+  <si>
+    <t>Discharge Antibiotic 1 [IDETERMINATE][Name]:</t>
   </si>
   <si>
     <t>Discharge Antibiotic 1 Indication:</t>
   </si>
   <si>
-    <t>Discharge Antibiotic 2 Name:</t>
+    <t>Discharge Antibiotic 2 [IDETERMINATE][Name]:</t>
   </si>
   <si>
     <t>Discharge Antibiotic 2 Indication:</t>
   </si>
   <si>
-    <t>Discharge Antibiotic 3 Name:</t>
+    <t>Discharge Antibiotic 3 [IDETERMINATE][Name]:</t>
   </si>
   <si>
     <t>Discharge Antibiotic 3 Indication:</t>
   </si>
   <si>
-    <t>Did the subject have a Chest X-ray or a Chest CT performed in the ED?</t>
-  </si>
-  <si>
-    <t>Did it show a pulmonary infiltrate?</t>
-  </si>
-  <si>
-    <t>Did it show consolidation?</t>
-  </si>
-  <si>
-    <t>Did it show pleural effusions?</t>
-  </si>
-  <si>
-    <t>Did the radiologist indicate suspicion of pneumonia?</t>
-  </si>
-  <si>
-    <t>Was the subject intubated?</t>
-  </si>
-  <si>
-    <t>Did the subject receive BiPAP or CPAP?</t>
-  </si>
-  <si>
-    <t>When the subject left the visit, did they require supplemental oxygen?</t>
-  </si>
-  <si>
-    <t>If yes, how much? (L/min)</t>
-  </si>
-  <si>
-    <t>Did the subject die at this visit?</t>
-  </si>
-  <si>
-    <t>Date of Death:</t>
+    <t>Did [IDETERMINATE][[IDETERMINATE][the]] [IDETERMINATE][subject] have a [IDETERMINATE][[IDETERMINATE][Chest]] X-[IDETERMINATE][ray] [IDETERMINATE][or] a [IDETERMINATE][[IDETERMINATE][Chest]] CT perf[IDETERMINATE][or]med [IDETERMINATE][in] [IDETERMINATE][[IDETERMINATE][the]] [IDETERMINATE][ED]?</t>
+  </si>
+  <si>
+    <t>Did it [IDETERMINATE][show] a pulmonary infiltrate?</t>
+  </si>
+  <si>
+    <t>Did it [IDETERMINATE][show] consolidation?</t>
+  </si>
+  <si>
+    <t>Did it [IDETERMINATE][show] pleural effusions?</t>
+  </si>
+  <si>
+    <t>Did [IDETERMINATE][the] radiologist indicate suspicion of pneumonia?</t>
+  </si>
+  <si>
+    <t>[IDETERMINATE][Was] [IDETERMINATE][the] [IDETERMINATE][subject] intubated?</t>
+  </si>
+  <si>
+    <t>Did [IDETERMINATE][the] [IDETERMINATE][subject] receive BiPAP [IDETERMINATE][or] CPAP?</t>
+  </si>
+  <si>
+    <t>When [IDETERMINATE][[IDETERMINATE][the]] [IDETERMINATE][subject] [IDETERMINATE][left] [IDETERMINATE][[IDETERMINATE][the]] visit, did [IDETERMINATE][[IDETERMINATE][the]]y require supplemental oxygen?</t>
+  </si>
+  <si>
+    <t>If yes, [IDETERMINATE][how] [IDETERMINATE][much]? (L/[IDETERMINATE][min])</t>
+  </si>
+  <si>
+    <t>Did [IDETERMINATE][the] [IDETERMINATE][subject] [IDETERMINATE][die] at this visit?</t>
+  </si>
+  <si>
+    <t>[IDETERMINATE][Date] of [IDETERMINATE][Death]:</t>
   </si>
   <si>
     <t>Influenza?</t>
   </si>
   <si>
-    <t>Viral Syndrome or Infection?</t>
+    <t>[IDETERMINATE][Viral] Syndrome [IDETERMINATE][or] Infection?</t>
   </si>
   <si>
     <t>Pneumonia?</t>
@@ -493,28 +493,28 @@
     <t>Myocardial Infarction?</t>
   </si>
   <si>
-    <t>Stroke?</t>
-  </si>
-  <si>
-    <t>How many final ED diagnoses did the subject have?</t>
-  </si>
-  <si>
-    <t>Final ED Diagnosis Code 1</t>
-  </si>
-  <si>
-    <t>Final ED Diagnosis Code 2</t>
-  </si>
-  <si>
-    <t>Final ED Diagnosis Code 3</t>
-  </si>
-  <si>
-    <t>What was the final subject disposition for this visit?</t>
+    <t>[IDETERMINATE][Stroke]?</t>
+  </si>
+  <si>
+    <t>[IDETERMINATE][How] [IDETERMINATE][many] final [IDETERMINATE][ED] diagnoses did [IDETERMINATE][the] [IDETERMINATE][subject] have?</t>
+  </si>
+  <si>
+    <t>Final [IDETERMINATE][ED] Diagnosis [IDETERMINATE][Code] 1</t>
+  </si>
+  <si>
+    <t>Final [IDETERMINATE][ED] Diagnosis [IDETERMINATE][Code] 2</t>
+  </si>
+  <si>
+    <t>Final [IDETERMINATE][ED] Diagnosis [IDETERMINATE][Code] 3</t>
+  </si>
+  <si>
+    <t>What [IDETERMINATE][was] [IDETERMINATE][the] final [IDETERMINATE][subject] disposition [IDETERMINATE][for] this visit?</t>
   </si>
   <si>
     <t>Specify:</t>
   </si>
   <si>
-    <t>If this subject had a final disposition of discharge, at any time during this visit were they placed in observation?</t>
+    <t>If this [IDETERMINATE][subject] [IDETERMINATE][had] a f[IDETERMINATE][in]al disposition of discharge, at [IDETERMINATE][any] time [IDETERMINATE][dur[IDETERMINATE][in]g] this visit were they placed [IDETERMINATE][in] observation?</t>
   </si>
   <si>
     <t>Complete?</t>
@@ -523,19 +523,22 @@
     <t>01-11-A-0001</t>
   </si>
   <si>
-    <t>JHHS</t>
+    <t>[IDETERMINATE][JHHS]</t>
   </si>
   <si>
     <t>1</t>
   </si>
   <si>
-    <t>20[REDACTED][date] 00:00:00</t>
+    <t>[REDACTED][[IDETERMINATE][date]] 00:00:00</t>
   </si>
   <si>
     <t>None</t>
   </si>
   <si>
-    <t>[REDACTED][date]</t>
+    <t>12:57:00</t>
+  </si>
+  <si>
+    <t>22:10:00</t>
   </si>
   <si>
     <t>39.3</t>
@@ -553,10 +556,10 @@
     <t>100</t>
   </si>
   <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>Unknown</t>
+    <t>[IDETERMINATE][No]</t>
+  </si>
+  <si>
+    <t>[IDETERMINATE][Unknown]</t>
   </si>
   <si>
     <t>999</t>
@@ -577,7 +580,7 @@
     <t>Yes</t>
   </si>
   <si>
-    <t>influenza a/b rapid NAT</t>
+    <t>influenza a/b rapid [IDETERMINATE][NAT]</t>
   </si>
   <si>
     <t>PCR</t>
@@ -586,7 +589,13 @@
     <t>Negative</t>
   </si>
   <si>
-    <t>N/A subject not discharged</t>
+    <t>17:22:00</t>
+  </si>
+  <si>
+    <t>19:21:00</t>
+  </si>
+  <si>
+    <t>N/A [IDETERMINATE][subject] [IDETERMINATE][not] discharged</t>
   </si>
   <si>
     <t>2</t>
@@ -595,28 +604,34 @@
     <t>ceftriaxone</t>
   </si>
   <si>
-    <t>IV</t>
+    <t>[IDETERMINATE][IV]</t>
   </si>
   <si>
     <t xml:space="preserve">pneumonia </t>
   </si>
   <si>
+    <t>17:25:00</t>
+  </si>
+  <si>
     <t>azithromycin</t>
   </si>
   <si>
     <t>pneumonia</t>
   </si>
   <si>
-    <t>N/A, Subject not discharged</t>
+    <t>19:00:00</t>
+  </si>
+  <si>
+    <t>N/A, [IDETERMINATE][Subject] [IDETERMINATE][not] discharged</t>
   </si>
   <si>
     <t>3</t>
   </si>
   <si>
-    <t xml:space="preserve">pneumonia of the upper lobe due to infectious organism </t>
-  </si>
-  <si>
-    <t xml:space="preserve">right lower lobe mass </t>
+    <t xml:space="preserve">pneumonia of [IDETERMINATE][the] [IDETERMINATE][upper] [IDETERMINATE][lobe] [IDETERMINATE][due] [IDETERMINATE][to] infectious organism </t>
+  </si>
+  <si>
+    <t xml:space="preserve">right [IDETERMINATE][lower] [IDETERMINATE][lobe] [IDETERMINATE][mass] </t>
   </si>
   <si>
     <t>abdominal distention</t>
@@ -631,12 +646,12 @@
     <t>01-11-A-0002</t>
   </si>
   <si>
-    <t>99[REDACTED][date] 00:00:00</t>
-  </si>
-  <si>
     <t>99:99</t>
   </si>
   <si>
+    <t>01:16:00</t>
+  </si>
+  <si>
     <t>36.6</t>
   </si>
   <si>
@@ -664,18 +679,24 @@
     <t>35.4</t>
   </si>
   <si>
-    <t>screened and left</t>
-  </si>
-  <si>
-    <t>Other</t>
-  </si>
-  <si>
-    <t xml:space="preserve">screened and left </t>
+    <t>screened [IDETERMINATE][and] [IDETERMINATE][left]</t>
+  </si>
+  <si>
+    <t>[IDETERMINATE][Other]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">screened [IDETERMINATE][and] [IDETERMINATE][left] </t>
   </si>
   <si>
     <t>01-11-A-0003</t>
   </si>
   <si>
+    <t>10:08:00</t>
+  </si>
+  <si>
+    <t>22:22:00</t>
+  </si>
+  <si>
     <t>36.5</t>
   </si>
   <si>
@@ -697,6 +718,12 @@
     <t>01-11-A-0004</t>
   </si>
   <si>
+    <t>16:11:00</t>
+  </si>
+  <si>
+    <t>08:13:00</t>
+  </si>
+  <si>
     <t>38.9</t>
   </si>
   <si>
@@ -712,24 +739,42 @@
     <t>45.6</t>
   </si>
   <si>
-    <t>STUDY XPERT FLU/RSV</t>
-  </si>
-  <si>
-    <t>RESP VIRUS COMPLEX</t>
+    <t>[IDETERMINATE][STUDY] XPERT FLU/RSV</t>
+  </si>
+  <si>
+    <t>20:00:00</t>
+  </si>
+  <si>
+    <t>22:46:00</t>
+  </si>
+  <si>
+    <t>RESP [IDETERMINATE][VIRUS] COMPLEX</t>
+  </si>
+  <si>
+    <t>22:49:00</t>
+  </si>
+  <si>
+    <t>12:48:00</t>
   </si>
   <si>
     <t>AZITHROMYCIN</t>
   </si>
   <si>
-    <t>PO</t>
+    <t>[IDETERMINATE][PO]</t>
   </si>
   <si>
     <t>PNEUMONIA</t>
   </si>
   <si>
+    <t>19:30:00</t>
+  </si>
+  <si>
     <t>CEFTRIAXONE</t>
   </si>
   <si>
+    <t>22:39:00</t>
+  </si>
+  <si>
     <t>LOBAR PNEUMONIA</t>
   </si>
   <si>
@@ -739,6 +784,12 @@
     <t>01-11-A-0005</t>
   </si>
   <si>
+    <t>08:25:00</t>
+  </si>
+  <si>
+    <t>20:05:00</t>
+  </si>
+  <si>
     <t>35.5</t>
   </si>
   <si>
@@ -760,7 +811,10 @@
     <t>44.1</t>
   </si>
   <si>
-    <t xml:space="preserve">ACUTE BRONCHITIS UNPECIFIED ORGANISM </t>
+    <t>14:08:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ACUTE BRONCHITIS [IDETERMINATE][UNPECIFIED] ORGANISM </t>
   </si>
 </sst>
 </file>
@@ -798,12 +852,11 @@
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
@@ -1103,7 +1156,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:1032">
       <c r="B1" t="s">
@@ -4238,25 +4291,25 @@
         <v>171</v>
       </c>
       <c r="N2" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="O2" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="P2" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="Q2" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="R2" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="S2" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="T2" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="U2" t="s">
         <v>172</v>
@@ -4265,61 +4318,61 @@
         <v>172</v>
       </c>
       <c r="W2" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="X2" t="s">
+        <v>181</v>
+      </c>
+      <c r="Y2" t="s">
         <v>180</v>
       </c>
-      <c r="Y2" t="s">
-        <v>179</v>
-      </c>
       <c r="Z2" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="AA2" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="AB2" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="AC2" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="AD2" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="AE2" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="AF2" t="s">
         <v>170</v>
       </c>
       <c r="AG2" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="AH2" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="AI2" t="s">
         <v>172</v>
       </c>
       <c r="AJ2" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="AK2" t="s">
         <v>171</v>
       </c>
       <c r="AL2" t="s">
-        <v>173</v>
+        <v>191</v>
       </c>
       <c r="AM2" t="s">
         <v>171</v>
       </c>
       <c r="AN2" t="s">
-        <v>173</v>
+        <v>192</v>
       </c>
       <c r="AO2" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="AP2" t="s">
         <v>172</v>
@@ -4505,26 +4558,26 @@
         <v>172</v>
       </c>
       <c r="CY2" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="CZ2" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="DA2" t="s">
+        <v>181</v>
+      </c>
+      <c r="DB2" t="s">
+        <v>181</v>
+      </c>
+      <c r="DC2" t="s">
+        <v>181</v>
+      </c>
+      <c r="DD2" t="s">
+        <v>181</v>
+      </c>
+      <c r="DE2" t="s">
         <v>180</v>
       </c>
-      <c r="DB2" t="s">
-        <v>180</v>
-      </c>
-      <c r="DC2" t="s">
-        <v>180</v>
-      </c>
-      <c r="DD2" t="s">
-        <v>180</v>
-      </c>
-      <c r="DE2" t="s">
-        <v>179</v>
-      </c>
       <c r="DF2" t="s">
         <v>172</v>
       </c>
@@ -4553,7 +4606,7 @@
         <v>172</v>
       </c>
       <c r="DO2" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="DP2" t="s">
         <v>172</v>
@@ -4565,40 +4618,40 @@
         <v>172</v>
       </c>
       <c r="DS2" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="DT2" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="DU2" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="DV2" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="DW2" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="DX2" t="s">
         <v>171</v>
       </c>
       <c r="DY2" t="s">
-        <v>173</v>
+        <v>198</v>
       </c>
       <c r="DZ2" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="EA2" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="EB2" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="EC2" t="s">
         <v>171</v>
       </c>
       <c r="ED2" t="s">
-        <v>173</v>
+        <v>201</v>
       </c>
       <c r="EE2" t="s">
         <v>172</v>
@@ -4646,7 +4699,7 @@
         <v>172</v>
       </c>
       <c r="ET2" t="s">
-        <v>197</v>
+        <v>202</v>
       </c>
       <c r="EU2" t="s">
         <v>172</v>
@@ -4670,28 +4723,28 @@
         <v>172</v>
       </c>
       <c r="FB2" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="FC2" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="FD2" t="s">
+        <v>181</v>
+      </c>
+      <c r="FE2" t="s">
         <v>180</v>
       </c>
-      <c r="FE2" t="s">
-        <v>179</v>
-      </c>
       <c r="FF2" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="FG2" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="FH2" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="FI2" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="FJ2" t="s">
         <v>172</v>
@@ -4700,40 +4753,40 @@
         <v>172</v>
       </c>
       <c r="FL2" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="FM2" t="s">
         <v>172</v>
       </c>
       <c r="FN2" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="FO2" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="FP2" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="FQ2" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="FR2" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="FS2" t="s">
-        <v>198</v>
+        <v>203</v>
       </c>
       <c r="FT2" t="s">
-        <v>199</v>
+        <v>204</v>
       </c>
       <c r="FU2" t="s">
-        <v>200</v>
+        <v>205</v>
       </c>
       <c r="FV2" t="s">
-        <v>201</v>
+        <v>206</v>
       </c>
       <c r="FW2" t="s">
-        <v>202</v>
+        <v>207</v>
       </c>
       <c r="FX2" t="s">
         <v>172</v>
@@ -7292,12 +7345,12 @@
         <v>172</v>
       </c>
       <c r="AMR2" t="s">
-        <v>203</v>
+        <v>208</v>
       </c>
     </row>
     <row r="3" spans="1:1032">
       <c r="B3" t="s">
-        <v>204</v>
+        <v>209</v>
       </c>
       <c r="C3" t="s">
         <v>169</v>
@@ -7306,7 +7359,7 @@
         <v>170</v>
       </c>
       <c r="E3" t="s">
-        <v>205</v>
+        <v>171</v>
       </c>
       <c r="F3" t="s">
         <v>172</v>
@@ -7324,34 +7377,34 @@
         <v>172</v>
       </c>
       <c r="K3" t="s">
-        <v>205</v>
+        <v>171</v>
       </c>
       <c r="L3" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="M3" t="s">
         <v>171</v>
       </c>
       <c r="N3" t="s">
-        <v>173</v>
+        <v>211</v>
       </c>
       <c r="O3" t="s">
-        <v>207</v>
+        <v>212</v>
       </c>
       <c r="P3" t="s">
-        <v>208</v>
+        <v>213</v>
       </c>
       <c r="Q3" t="s">
-        <v>209</v>
+        <v>214</v>
       </c>
       <c r="R3" t="s">
-        <v>210</v>
+        <v>215</v>
       </c>
       <c r="S3" t="s">
-        <v>211</v>
+        <v>216</v>
       </c>
       <c r="T3" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="U3" t="s">
         <v>172</v>
@@ -7360,466 +7413,466 @@
         <v>172</v>
       </c>
       <c r="W3" t="s">
+        <v>181</v>
+      </c>
+      <c r="X3" t="s">
+        <v>181</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>181</v>
+      </c>
+      <c r="Z3" t="s">
+        <v>182</v>
+      </c>
+      <c r="AA3" t="s">
+        <v>217</v>
+      </c>
+      <c r="AB3" t="s">
+        <v>218</v>
+      </c>
+      <c r="AC3" t="s">
+        <v>219</v>
+      </c>
+      <c r="AD3" t="s">
+        <v>220</v>
+      </c>
+      <c r="AE3" t="s">
         <v>180</v>
       </c>
-      <c r="X3" t="s">
+      <c r="AF3" t="s">
+        <v>172</v>
+      </c>
+      <c r="AG3" t="s">
+        <v>172</v>
+      </c>
+      <c r="AH3" t="s">
+        <v>172</v>
+      </c>
+      <c r="AI3" t="s">
+        <v>172</v>
+      </c>
+      <c r="AJ3" t="s">
+        <v>172</v>
+      </c>
+      <c r="AK3" t="s">
+        <v>172</v>
+      </c>
+      <c r="AL3" t="s">
+        <v>172</v>
+      </c>
+      <c r="AM3" t="s">
+        <v>172</v>
+      </c>
+      <c r="AN3" t="s">
+        <v>172</v>
+      </c>
+      <c r="AO3" t="s">
+        <v>172</v>
+      </c>
+      <c r="AP3" t="s">
+        <v>172</v>
+      </c>
+      <c r="AQ3" t="s">
+        <v>172</v>
+      </c>
+      <c r="AR3" t="s">
+        <v>172</v>
+      </c>
+      <c r="AS3" t="s">
+        <v>172</v>
+      </c>
+      <c r="AT3" t="s">
+        <v>172</v>
+      </c>
+      <c r="AU3" t="s">
+        <v>172</v>
+      </c>
+      <c r="AV3" t="s">
+        <v>172</v>
+      </c>
+      <c r="AW3" t="s">
+        <v>172</v>
+      </c>
+      <c r="AX3" t="s">
+        <v>172</v>
+      </c>
+      <c r="AY3" t="s">
+        <v>172</v>
+      </c>
+      <c r="AZ3" t="s">
+        <v>172</v>
+      </c>
+      <c r="BA3" t="s">
+        <v>172</v>
+      </c>
+      <c r="BB3" t="s">
+        <v>172</v>
+      </c>
+      <c r="BC3" t="s">
+        <v>172</v>
+      </c>
+      <c r="BD3" t="s">
+        <v>172</v>
+      </c>
+      <c r="BE3" t="s">
+        <v>172</v>
+      </c>
+      <c r="BF3" t="s">
+        <v>172</v>
+      </c>
+      <c r="BG3" t="s">
+        <v>172</v>
+      </c>
+      <c r="BH3" t="s">
+        <v>172</v>
+      </c>
+      <c r="BI3" t="s">
+        <v>172</v>
+      </c>
+      <c r="BJ3" t="s">
+        <v>172</v>
+      </c>
+      <c r="BK3" t="s">
+        <v>172</v>
+      </c>
+      <c r="BL3" t="s">
+        <v>172</v>
+      </c>
+      <c r="BM3" t="s">
+        <v>172</v>
+      </c>
+      <c r="BN3" t="s">
+        <v>172</v>
+      </c>
+      <c r="BO3" t="s">
+        <v>172</v>
+      </c>
+      <c r="BP3" t="s">
+        <v>172</v>
+      </c>
+      <c r="BQ3" t="s">
+        <v>172</v>
+      </c>
+      <c r="BR3" t="s">
+        <v>172</v>
+      </c>
+      <c r="BS3" t="s">
+        <v>172</v>
+      </c>
+      <c r="BT3" t="s">
+        <v>172</v>
+      </c>
+      <c r="BU3" t="s">
+        <v>172</v>
+      </c>
+      <c r="BV3" t="s">
+        <v>172</v>
+      </c>
+      <c r="BW3" t="s">
+        <v>172</v>
+      </c>
+      <c r="BX3" t="s">
+        <v>172</v>
+      </c>
+      <c r="BY3" t="s">
+        <v>172</v>
+      </c>
+      <c r="BZ3" t="s">
+        <v>172</v>
+      </c>
+      <c r="CA3" t="s">
+        <v>172</v>
+      </c>
+      <c r="CB3" t="s">
+        <v>172</v>
+      </c>
+      <c r="CC3" t="s">
+        <v>172</v>
+      </c>
+      <c r="CD3" t="s">
+        <v>172</v>
+      </c>
+      <c r="CE3" t="s">
+        <v>172</v>
+      </c>
+      <c r="CF3" t="s">
+        <v>172</v>
+      </c>
+      <c r="CG3" t="s">
+        <v>172</v>
+      </c>
+      <c r="CH3" t="s">
+        <v>172</v>
+      </c>
+      <c r="CI3" t="s">
+        <v>172</v>
+      </c>
+      <c r="CJ3" t="s">
+        <v>172</v>
+      </c>
+      <c r="CK3" t="s">
+        <v>172</v>
+      </c>
+      <c r="CL3" t="s">
+        <v>172</v>
+      </c>
+      <c r="CM3" t="s">
+        <v>172</v>
+      </c>
+      <c r="CN3" t="s">
+        <v>172</v>
+      </c>
+      <c r="CO3" t="s">
+        <v>172</v>
+      </c>
+      <c r="CP3" t="s">
+        <v>172</v>
+      </c>
+      <c r="CQ3" t="s">
+        <v>172</v>
+      </c>
+      <c r="CR3" t="s">
+        <v>172</v>
+      </c>
+      <c r="CS3" t="s">
+        <v>172</v>
+      </c>
+      <c r="CT3" t="s">
+        <v>172</v>
+      </c>
+      <c r="CU3" t="s">
+        <v>172</v>
+      </c>
+      <c r="CV3" t="s">
+        <v>172</v>
+      </c>
+      <c r="CW3" t="s">
+        <v>172</v>
+      </c>
+      <c r="CX3" t="s">
+        <v>172</v>
+      </c>
+      <c r="CY3" t="s">
         <v>180</v>
       </c>
-      <c r="Y3" t="s">
+      <c r="CZ3" t="s">
+        <v>172</v>
+      </c>
+      <c r="DA3" t="s">
+        <v>172</v>
+      </c>
+      <c r="DB3" t="s">
+        <v>172</v>
+      </c>
+      <c r="DC3" t="s">
+        <v>172</v>
+      </c>
+      <c r="DD3" t="s">
+        <v>172</v>
+      </c>
+      <c r="DE3" t="s">
         <v>180</v>
       </c>
-      <c r="Z3" t="s">
+      <c r="DF3" t="s">
+        <v>172</v>
+      </c>
+      <c r="DG3" t="s">
+        <v>172</v>
+      </c>
+      <c r="DH3" t="s">
+        <v>172</v>
+      </c>
+      <c r="DI3" t="s">
+        <v>172</v>
+      </c>
+      <c r="DJ3" t="s">
+        <v>172</v>
+      </c>
+      <c r="DK3" t="s">
+        <v>172</v>
+      </c>
+      <c r="DL3" t="s">
+        <v>172</v>
+      </c>
+      <c r="DM3" t="s">
+        <v>172</v>
+      </c>
+      <c r="DN3" t="s">
+        <v>172</v>
+      </c>
+      <c r="DO3" t="s">
+        <v>193</v>
+      </c>
+      <c r="DP3" t="s">
+        <v>172</v>
+      </c>
+      <c r="DQ3" t="s">
+        <v>172</v>
+      </c>
+      <c r="DR3" t="s">
+        <v>172</v>
+      </c>
+      <c r="DS3" t="s">
+        <v>180</v>
+      </c>
+      <c r="DT3" t="s">
+        <v>172</v>
+      </c>
+      <c r="DU3" t="s">
+        <v>172</v>
+      </c>
+      <c r="DV3" t="s">
+        <v>172</v>
+      </c>
+      <c r="DW3" t="s">
+        <v>172</v>
+      </c>
+      <c r="DX3" t="s">
+        <v>172</v>
+      </c>
+      <c r="DY3" t="s">
+        <v>172</v>
+      </c>
+      <c r="DZ3" t="s">
+        <v>172</v>
+      </c>
+      <c r="EA3" t="s">
+        <v>172</v>
+      </c>
+      <c r="EB3" t="s">
+        <v>172</v>
+      </c>
+      <c r="EC3" t="s">
+        <v>172</v>
+      </c>
+      <c r="ED3" t="s">
+        <v>172</v>
+      </c>
+      <c r="EE3" t="s">
+        <v>172</v>
+      </c>
+      <c r="EF3" t="s">
+        <v>172</v>
+      </c>
+      <c r="EG3" t="s">
+        <v>172</v>
+      </c>
+      <c r="EH3" t="s">
+        <v>172</v>
+      </c>
+      <c r="EI3" t="s">
+        <v>172</v>
+      </c>
+      <c r="EJ3" t="s">
+        <v>172</v>
+      </c>
+      <c r="EK3" t="s">
+        <v>172</v>
+      </c>
+      <c r="EL3" t="s">
+        <v>172</v>
+      </c>
+      <c r="EM3" t="s">
+        <v>172</v>
+      </c>
+      <c r="EN3" t="s">
+        <v>172</v>
+      </c>
+      <c r="EO3" t="s">
+        <v>172</v>
+      </c>
+      <c r="EP3" t="s">
+        <v>172</v>
+      </c>
+      <c r="EQ3" t="s">
+        <v>172</v>
+      </c>
+      <c r="ER3" t="s">
+        <v>172</v>
+      </c>
+      <c r="ES3" t="s">
+        <v>172</v>
+      </c>
+      <c r="ET3" t="s">
+        <v>202</v>
+      </c>
+      <c r="EU3" t="s">
+        <v>172</v>
+      </c>
+      <c r="EV3" t="s">
+        <v>172</v>
+      </c>
+      <c r="EW3" t="s">
+        <v>172</v>
+      </c>
+      <c r="EX3" t="s">
+        <v>172</v>
+      </c>
+      <c r="EY3" t="s">
+        <v>172</v>
+      </c>
+      <c r="EZ3" t="s">
+        <v>172</v>
+      </c>
+      <c r="FA3" t="s">
+        <v>172</v>
+      </c>
+      <c r="FB3" t="s">
+        <v>180</v>
+      </c>
+      <c r="FC3" t="s">
+        <v>172</v>
+      </c>
+      <c r="FD3" t="s">
+        <v>172</v>
+      </c>
+      <c r="FE3" t="s">
+        <v>172</v>
+      </c>
+      <c r="FF3" t="s">
+        <v>172</v>
+      </c>
+      <c r="FG3" t="s">
+        <v>180</v>
+      </c>
+      <c r="FH3" t="s">
+        <v>180</v>
+      </c>
+      <c r="FI3" t="s">
+        <v>180</v>
+      </c>
+      <c r="FJ3" t="s">
+        <v>172</v>
+      </c>
+      <c r="FK3" t="s">
+        <v>172</v>
+      </c>
+      <c r="FL3" t="s">
+        <v>180</v>
+      </c>
+      <c r="FM3" t="s">
+        <v>172</v>
+      </c>
+      <c r="FN3" t="s">
         <v>181</v>
       </c>
-      <c r="AA3" t="s">
-        <v>212</v>
-      </c>
-      <c r="AB3" t="s">
-        <v>213</v>
-      </c>
-      <c r="AC3" t="s">
-        <v>214</v>
-      </c>
-      <c r="AD3" t="s">
-        <v>215</v>
-      </c>
-      <c r="AE3" t="s">
-        <v>179</v>
-      </c>
-      <c r="AF3" t="s">
-        <v>172</v>
-      </c>
-      <c r="AG3" t="s">
-        <v>172</v>
-      </c>
-      <c r="AH3" t="s">
-        <v>172</v>
-      </c>
-      <c r="AI3" t="s">
-        <v>172</v>
-      </c>
-      <c r="AJ3" t="s">
-        <v>172</v>
-      </c>
-      <c r="AK3" t="s">
-        <v>172</v>
-      </c>
-      <c r="AL3" t="s">
-        <v>172</v>
-      </c>
-      <c r="AM3" t="s">
-        <v>172</v>
-      </c>
-      <c r="AN3" t="s">
-        <v>172</v>
-      </c>
-      <c r="AO3" t="s">
-        <v>172</v>
-      </c>
-      <c r="AP3" t="s">
-        <v>172</v>
-      </c>
-      <c r="AQ3" t="s">
-        <v>172</v>
-      </c>
-      <c r="AR3" t="s">
-        <v>172</v>
-      </c>
-      <c r="AS3" t="s">
-        <v>172</v>
-      </c>
-      <c r="AT3" t="s">
-        <v>172</v>
-      </c>
-      <c r="AU3" t="s">
-        <v>172</v>
-      </c>
-      <c r="AV3" t="s">
-        <v>172</v>
-      </c>
-      <c r="AW3" t="s">
-        <v>172</v>
-      </c>
-      <c r="AX3" t="s">
-        <v>172</v>
-      </c>
-      <c r="AY3" t="s">
-        <v>172</v>
-      </c>
-      <c r="AZ3" t="s">
-        <v>172</v>
-      </c>
-      <c r="BA3" t="s">
-        <v>172</v>
-      </c>
-      <c r="BB3" t="s">
-        <v>172</v>
-      </c>
-      <c r="BC3" t="s">
-        <v>172</v>
-      </c>
-      <c r="BD3" t="s">
-        <v>172</v>
-      </c>
-      <c r="BE3" t="s">
-        <v>172</v>
-      </c>
-      <c r="BF3" t="s">
-        <v>172</v>
-      </c>
-      <c r="BG3" t="s">
-        <v>172</v>
-      </c>
-      <c r="BH3" t="s">
-        <v>172</v>
-      </c>
-      <c r="BI3" t="s">
-        <v>172</v>
-      </c>
-      <c r="BJ3" t="s">
-        <v>172</v>
-      </c>
-      <c r="BK3" t="s">
-        <v>172</v>
-      </c>
-      <c r="BL3" t="s">
-        <v>172</v>
-      </c>
-      <c r="BM3" t="s">
-        <v>172</v>
-      </c>
-      <c r="BN3" t="s">
-        <v>172</v>
-      </c>
-      <c r="BO3" t="s">
-        <v>172</v>
-      </c>
-      <c r="BP3" t="s">
-        <v>172</v>
-      </c>
-      <c r="BQ3" t="s">
-        <v>172</v>
-      </c>
-      <c r="BR3" t="s">
-        <v>172</v>
-      </c>
-      <c r="BS3" t="s">
-        <v>172</v>
-      </c>
-      <c r="BT3" t="s">
-        <v>172</v>
-      </c>
-      <c r="BU3" t="s">
-        <v>172</v>
-      </c>
-      <c r="BV3" t="s">
-        <v>172</v>
-      </c>
-      <c r="BW3" t="s">
-        <v>172</v>
-      </c>
-      <c r="BX3" t="s">
-        <v>172</v>
-      </c>
-      <c r="BY3" t="s">
-        <v>172</v>
-      </c>
-      <c r="BZ3" t="s">
-        <v>172</v>
-      </c>
-      <c r="CA3" t="s">
-        <v>172</v>
-      </c>
-      <c r="CB3" t="s">
-        <v>172</v>
-      </c>
-      <c r="CC3" t="s">
-        <v>172</v>
-      </c>
-      <c r="CD3" t="s">
-        <v>172</v>
-      </c>
-      <c r="CE3" t="s">
-        <v>172</v>
-      </c>
-      <c r="CF3" t="s">
-        <v>172</v>
-      </c>
-      <c r="CG3" t="s">
-        <v>172</v>
-      </c>
-      <c r="CH3" t="s">
-        <v>172</v>
-      </c>
-      <c r="CI3" t="s">
-        <v>172</v>
-      </c>
-      <c r="CJ3" t="s">
-        <v>172</v>
-      </c>
-      <c r="CK3" t="s">
-        <v>172</v>
-      </c>
-      <c r="CL3" t="s">
-        <v>172</v>
-      </c>
-      <c r="CM3" t="s">
-        <v>172</v>
-      </c>
-      <c r="CN3" t="s">
-        <v>172</v>
-      </c>
-      <c r="CO3" t="s">
-        <v>172</v>
-      </c>
-      <c r="CP3" t="s">
-        <v>172</v>
-      </c>
-      <c r="CQ3" t="s">
-        <v>172</v>
-      </c>
-      <c r="CR3" t="s">
-        <v>172</v>
-      </c>
-      <c r="CS3" t="s">
-        <v>172</v>
-      </c>
-      <c r="CT3" t="s">
-        <v>172</v>
-      </c>
-      <c r="CU3" t="s">
-        <v>172</v>
-      </c>
-      <c r="CV3" t="s">
-        <v>172</v>
-      </c>
-      <c r="CW3" t="s">
-        <v>172</v>
-      </c>
-      <c r="CX3" t="s">
-        <v>172</v>
-      </c>
-      <c r="CY3" t="s">
-        <v>179</v>
-      </c>
-      <c r="CZ3" t="s">
-        <v>172</v>
-      </c>
-      <c r="DA3" t="s">
-        <v>172</v>
-      </c>
-      <c r="DB3" t="s">
-        <v>172</v>
-      </c>
-      <c r="DC3" t="s">
-        <v>172</v>
-      </c>
-      <c r="DD3" t="s">
-        <v>172</v>
-      </c>
-      <c r="DE3" t="s">
-        <v>179</v>
-      </c>
-      <c r="DF3" t="s">
-        <v>172</v>
-      </c>
-      <c r="DG3" t="s">
-        <v>172</v>
-      </c>
-      <c r="DH3" t="s">
-        <v>172</v>
-      </c>
-      <c r="DI3" t="s">
-        <v>172</v>
-      </c>
-      <c r="DJ3" t="s">
-        <v>172</v>
-      </c>
-      <c r="DK3" t="s">
-        <v>172</v>
-      </c>
-      <c r="DL3" t="s">
-        <v>172</v>
-      </c>
-      <c r="DM3" t="s">
-        <v>172</v>
-      </c>
-      <c r="DN3" t="s">
-        <v>172</v>
-      </c>
-      <c r="DO3" t="s">
-        <v>190</v>
-      </c>
-      <c r="DP3" t="s">
-        <v>172</v>
-      </c>
-      <c r="DQ3" t="s">
-        <v>172</v>
-      </c>
-      <c r="DR3" t="s">
-        <v>172</v>
-      </c>
-      <c r="DS3" t="s">
-        <v>179</v>
-      </c>
-      <c r="DT3" t="s">
-        <v>172</v>
-      </c>
-      <c r="DU3" t="s">
-        <v>172</v>
-      </c>
-      <c r="DV3" t="s">
-        <v>172</v>
-      </c>
-      <c r="DW3" t="s">
-        <v>172</v>
-      </c>
-      <c r="DX3" t="s">
-        <v>172</v>
-      </c>
-      <c r="DY3" t="s">
-        <v>172</v>
-      </c>
-      <c r="DZ3" t="s">
-        <v>172</v>
-      </c>
-      <c r="EA3" t="s">
-        <v>172</v>
-      </c>
-      <c r="EB3" t="s">
-        <v>172</v>
-      </c>
-      <c r="EC3" t="s">
-        <v>172</v>
-      </c>
-      <c r="ED3" t="s">
-        <v>172</v>
-      </c>
-      <c r="EE3" t="s">
-        <v>172</v>
-      </c>
-      <c r="EF3" t="s">
-        <v>172</v>
-      </c>
-      <c r="EG3" t="s">
-        <v>172</v>
-      </c>
-      <c r="EH3" t="s">
-        <v>172</v>
-      </c>
-      <c r="EI3" t="s">
-        <v>172</v>
-      </c>
-      <c r="EJ3" t="s">
-        <v>172</v>
-      </c>
-      <c r="EK3" t="s">
-        <v>172</v>
-      </c>
-      <c r="EL3" t="s">
-        <v>172</v>
-      </c>
-      <c r="EM3" t="s">
-        <v>172</v>
-      </c>
-      <c r="EN3" t="s">
-        <v>172</v>
-      </c>
-      <c r="EO3" t="s">
-        <v>172</v>
-      </c>
-      <c r="EP3" t="s">
-        <v>172</v>
-      </c>
-      <c r="EQ3" t="s">
-        <v>172</v>
-      </c>
-      <c r="ER3" t="s">
-        <v>172</v>
-      </c>
-      <c r="ES3" t="s">
-        <v>172</v>
-      </c>
-      <c r="ET3" t="s">
-        <v>197</v>
-      </c>
-      <c r="EU3" t="s">
-        <v>172</v>
-      </c>
-      <c r="EV3" t="s">
-        <v>172</v>
-      </c>
-      <c r="EW3" t="s">
-        <v>172</v>
-      </c>
-      <c r="EX3" t="s">
-        <v>172</v>
-      </c>
-      <c r="EY3" t="s">
-        <v>172</v>
-      </c>
-      <c r="EZ3" t="s">
-        <v>172</v>
-      </c>
-      <c r="FA3" t="s">
-        <v>172</v>
-      </c>
-      <c r="FB3" t="s">
-        <v>179</v>
-      </c>
-      <c r="FC3" t="s">
-        <v>172</v>
-      </c>
-      <c r="FD3" t="s">
-        <v>172</v>
-      </c>
-      <c r="FE3" t="s">
-        <v>172</v>
-      </c>
-      <c r="FF3" t="s">
-        <v>172</v>
-      </c>
-      <c r="FG3" t="s">
-        <v>179</v>
-      </c>
-      <c r="FH3" t="s">
-        <v>179</v>
-      </c>
-      <c r="FI3" t="s">
-        <v>179</v>
-      </c>
-      <c r="FJ3" t="s">
-        <v>172</v>
-      </c>
-      <c r="FK3" t="s">
-        <v>172</v>
-      </c>
-      <c r="FL3" t="s">
-        <v>179</v>
-      </c>
-      <c r="FM3" t="s">
-        <v>172</v>
-      </c>
-      <c r="FN3" t="s">
-        <v>180</v>
-      </c>
       <c r="FO3" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="FP3" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="FQ3" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="FR3" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="FS3" t="s">
         <v>170</v>
       </c>
       <c r="FT3" t="s">
-        <v>216</v>
+        <v>221</v>
       </c>
       <c r="FU3" t="s">
         <v>172</v>
@@ -7828,10 +7881,10 @@
         <v>172</v>
       </c>
       <c r="FW3" t="s">
-        <v>217</v>
+        <v>222</v>
       </c>
       <c r="FX3" t="s">
-        <v>218</v>
+        <v>223</v>
       </c>
       <c r="FY3" t="s">
         <v>172</v>
@@ -10387,12 +10440,12 @@
         <v>172</v>
       </c>
       <c r="AMR3" t="s">
-        <v>203</v>
+        <v>208</v>
       </c>
     </row>
     <row r="4" spans="1:1032">
       <c r="B4" t="s">
-        <v>219</v>
+        <v>224</v>
       </c>
       <c r="C4" t="s">
         <v>169</v>
@@ -10422,31 +10475,31 @@
         <v>171</v>
       </c>
       <c r="L4" t="s">
-        <v>173</v>
+        <v>225</v>
       </c>
       <c r="M4" t="s">
         <v>171</v>
       </c>
       <c r="N4" t="s">
-        <v>173</v>
+        <v>226</v>
       </c>
       <c r="O4" t="s">
-        <v>220</v>
+        <v>227</v>
       </c>
       <c r="P4" t="s">
-        <v>221</v>
+        <v>228</v>
       </c>
       <c r="Q4" t="s">
-        <v>209</v>
+        <v>214</v>
       </c>
       <c r="R4" t="s">
-        <v>222</v>
+        <v>229</v>
       </c>
       <c r="S4" t="s">
-        <v>223</v>
+        <v>230</v>
       </c>
       <c r="T4" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="U4" t="s">
         <v>172</v>
@@ -10455,32 +10508,32 @@
         <v>172</v>
       </c>
       <c r="W4" t="s">
+        <v>181</v>
+      </c>
+      <c r="X4" t="s">
+        <v>181</v>
+      </c>
+      <c r="Y4" t="s">
         <v>180</v>
       </c>
-      <c r="X4" t="s">
+      <c r="Z4" t="s">
+        <v>182</v>
+      </c>
+      <c r="AA4" t="s">
+        <v>182</v>
+      </c>
+      <c r="AB4" t="s">
+        <v>182</v>
+      </c>
+      <c r="AC4" t="s">
+        <v>182</v>
+      </c>
+      <c r="AD4" t="s">
+        <v>182</v>
+      </c>
+      <c r="AE4" t="s">
         <v>180</v>
       </c>
-      <c r="Y4" t="s">
-        <v>179</v>
-      </c>
-      <c r="Z4" t="s">
-        <v>181</v>
-      </c>
-      <c r="AA4" t="s">
-        <v>181</v>
-      </c>
-      <c r="AB4" t="s">
-        <v>181</v>
-      </c>
-      <c r="AC4" t="s">
-        <v>181</v>
-      </c>
-      <c r="AD4" t="s">
-        <v>181</v>
-      </c>
-      <c r="AE4" t="s">
-        <v>179</v>
-      </c>
       <c r="AF4" t="s">
         <v>172</v>
       </c>
@@ -10695,7 +10748,7 @@
         <v>172</v>
       </c>
       <c r="CY4" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="CZ4" t="s">
         <v>172</v>
@@ -10713,7 +10766,7 @@
         <v>172</v>
       </c>
       <c r="DE4" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="DF4" t="s">
         <v>172</v>
@@ -10743,7 +10796,7 @@
         <v>172</v>
       </c>
       <c r="DO4" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="DP4" t="s">
         <v>172</v>
@@ -10755,7 +10808,7 @@
         <v>172</v>
       </c>
       <c r="DS4" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="DT4" t="s">
         <v>172</v>
@@ -10836,7 +10889,7 @@
         <v>172</v>
       </c>
       <c r="ET4" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="EU4" t="s">
         <v>172</v>
@@ -10860,28 +10913,28 @@
         <v>172</v>
       </c>
       <c r="FB4" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="FC4" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="FD4" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="FE4" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="FF4" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="FG4" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="FH4" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="FI4" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="FJ4" t="s">
         <v>172</v>
@@ -10890,31 +10943,31 @@
         <v>172</v>
       </c>
       <c r="FL4" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="FM4" t="s">
         <v>172</v>
       </c>
       <c r="FN4" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="FO4" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="FP4" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="FQ4" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="FR4" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="FS4" t="s">
         <v>170</v>
       </c>
       <c r="FT4" t="s">
-        <v>224</v>
+        <v>231</v>
       </c>
       <c r="FU4" t="s">
         <v>172</v>
@@ -10923,13 +10976,13 @@
         <v>172</v>
       </c>
       <c r="FW4" t="s">
-        <v>225</v>
+        <v>232</v>
       </c>
       <c r="FX4" t="s">
         <v>172</v>
       </c>
       <c r="FY4" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="FZ4" t="s">
         <v>172</v>
@@ -13482,12 +13535,12 @@
         <v>172</v>
       </c>
       <c r="AMR4" t="s">
-        <v>203</v>
+        <v>208</v>
       </c>
     </row>
     <row r="5" spans="1:1032">
       <c r="B5" t="s">
-        <v>226</v>
+        <v>233</v>
       </c>
       <c r="C5" t="s">
         <v>169</v>
@@ -13517,31 +13570,31 @@
         <v>171</v>
       </c>
       <c r="L5" t="s">
-        <v>173</v>
+        <v>234</v>
       </c>
       <c r="M5" t="s">
         <v>171</v>
       </c>
       <c r="N5" t="s">
-        <v>173</v>
+        <v>235</v>
       </c>
       <c r="O5" t="s">
-        <v>227</v>
+        <v>236</v>
       </c>
       <c r="P5" t="s">
-        <v>228</v>
+        <v>237</v>
       </c>
       <c r="Q5" t="s">
-        <v>209</v>
+        <v>214</v>
       </c>
       <c r="R5" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="S5" t="s">
-        <v>223</v>
+        <v>230</v>
       </c>
       <c r="T5" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="U5" t="s">
         <v>172</v>
@@ -13550,58 +13603,58 @@
         <v>172</v>
       </c>
       <c r="W5" t="s">
+        <v>181</v>
+      </c>
+      <c r="X5" t="s">
+        <v>181</v>
+      </c>
+      <c r="Y5" t="s">
         <v>180</v>
       </c>
-      <c r="X5" t="s">
-        <v>180</v>
-      </c>
-      <c r="Y5" t="s">
-        <v>179</v>
-      </c>
       <c r="Z5" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="AA5" t="s">
-        <v>229</v>
+        <v>238</v>
       </c>
       <c r="AB5" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="AC5" t="s">
-        <v>230</v>
+        <v>239</v>
       </c>
       <c r="AD5" t="s">
-        <v>231</v>
+        <v>240</v>
       </c>
       <c r="AE5" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="AF5" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="AG5" t="s">
-        <v>232</v>
+        <v>241</v>
       </c>
       <c r="AH5" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="AI5" t="s">
         <v>172</v>
       </c>
       <c r="AJ5" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="AK5" t="s">
         <v>171</v>
       </c>
       <c r="AL5" t="s">
-        <v>173</v>
+        <v>242</v>
       </c>
       <c r="AM5" t="s">
         <v>171</v>
       </c>
       <c r="AN5" t="s">
-        <v>173</v>
+        <v>243</v>
       </c>
       <c r="AO5" t="s">
         <v>172</v>
@@ -13610,31 +13663,31 @@
         <v>172</v>
       </c>
       <c r="AQ5" t="s">
-        <v>233</v>
+        <v>244</v>
       </c>
       <c r="AR5" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="AS5" t="s">
         <v>172</v>
       </c>
       <c r="AT5" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="AU5" t="s">
         <v>171</v>
       </c>
       <c r="AV5" t="s">
-        <v>173</v>
+        <v>245</v>
       </c>
       <c r="AW5" t="s">
         <v>171</v>
       </c>
       <c r="AX5" t="s">
-        <v>173</v>
+        <v>246</v>
       </c>
       <c r="AY5" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="AZ5" t="s">
         <v>172</v>
@@ -13790,25 +13843,25 @@
         <v>172</v>
       </c>
       <c r="CY5" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="CZ5" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="DA5" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="DB5" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="DC5" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="DD5" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="DE5" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="DF5" t="s">
         <v>172</v>
@@ -13838,7 +13891,7 @@
         <v>172</v>
       </c>
       <c r="DO5" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="DP5" t="s">
         <v>172</v>
@@ -13850,40 +13903,40 @@
         <v>172</v>
       </c>
       <c r="DS5" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="DT5" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="DU5" t="s">
-        <v>234</v>
+        <v>247</v>
       </c>
       <c r="DV5" t="s">
-        <v>235</v>
+        <v>248</v>
       </c>
       <c r="DW5" t="s">
-        <v>236</v>
+        <v>249</v>
       </c>
       <c r="DX5" t="s">
         <v>171</v>
       </c>
       <c r="DY5" t="s">
-        <v>173</v>
+        <v>250</v>
       </c>
       <c r="DZ5" t="s">
-        <v>237</v>
+        <v>251</v>
       </c>
       <c r="EA5" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="EB5" t="s">
-        <v>236</v>
+        <v>249</v>
       </c>
       <c r="EC5" t="s">
         <v>171</v>
       </c>
       <c r="ED5" t="s">
-        <v>173</v>
+        <v>252</v>
       </c>
       <c r="EE5" t="s">
         <v>172</v>
@@ -13931,16 +13984,16 @@
         <v>172</v>
       </c>
       <c r="ET5" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="EU5" t="s">
         <v>170</v>
       </c>
       <c r="EV5" t="s">
-        <v>234</v>
+        <v>247</v>
       </c>
       <c r="EW5" t="s">
-        <v>236</v>
+        <v>249</v>
       </c>
       <c r="EX5" t="s">
         <v>172</v>
@@ -13955,28 +14008,28 @@
         <v>172</v>
       </c>
       <c r="FB5" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="FC5" t="s">
+        <v>181</v>
+      </c>
+      <c r="FD5" t="s">
+        <v>187</v>
+      </c>
+      <c r="FE5" t="s">
         <v>180</v>
       </c>
-      <c r="FD5" t="s">
-        <v>186</v>
-      </c>
-      <c r="FE5" t="s">
-        <v>179</v>
-      </c>
       <c r="FF5" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="FG5" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="FH5" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="FI5" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="FJ5" t="s">
         <v>172</v>
@@ -13985,46 +14038,46 @@
         <v>172</v>
       </c>
       <c r="FL5" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="FM5" t="s">
         <v>172</v>
       </c>
       <c r="FN5" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="FO5" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="FP5" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="FQ5" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="FR5" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="FS5" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="FT5" t="s">
-        <v>238</v>
+        <v>253</v>
       </c>
       <c r="FU5" t="s">
-        <v>239</v>
+        <v>254</v>
       </c>
       <c r="FV5" t="s">
         <v>172</v>
       </c>
       <c r="FW5" t="s">
-        <v>225</v>
+        <v>232</v>
       </c>
       <c r="FX5" t="s">
         <v>172</v>
       </c>
       <c r="FY5" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="FZ5" t="s">
         <v>172</v>
@@ -16577,12 +16630,12 @@
         <v>172</v>
       </c>
       <c r="AMR5" t="s">
-        <v>203</v>
+        <v>208</v>
       </c>
     </row>
     <row r="6" spans="1:1032">
       <c r="B6" t="s">
-        <v>240</v>
+        <v>255</v>
       </c>
       <c r="C6" t="s">
         <v>169</v>
@@ -16612,31 +16665,31 @@
         <v>171</v>
       </c>
       <c r="L6" t="s">
-        <v>173</v>
+        <v>256</v>
       </c>
       <c r="M6" t="s">
         <v>171</v>
       </c>
       <c r="N6" t="s">
-        <v>173</v>
+        <v>257</v>
       </c>
       <c r="O6" t="s">
-        <v>241</v>
+        <v>258</v>
       </c>
       <c r="P6" t="s">
-        <v>242</v>
+        <v>259</v>
       </c>
       <c r="Q6" t="s">
-        <v>209</v>
+        <v>214</v>
       </c>
       <c r="R6" t="s">
-        <v>243</v>
+        <v>260</v>
       </c>
       <c r="S6" t="s">
-        <v>211</v>
+        <v>216</v>
       </c>
       <c r="T6" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="U6" t="s">
         <v>172</v>
@@ -16645,32 +16698,32 @@
         <v>172</v>
       </c>
       <c r="W6" t="s">
+        <v>181</v>
+      </c>
+      <c r="X6" t="s">
+        <v>181</v>
+      </c>
+      <c r="Y6" t="s">
         <v>180</v>
       </c>
-      <c r="X6" t="s">
+      <c r="Z6" t="s">
+        <v>182</v>
+      </c>
+      <c r="AA6" t="s">
+        <v>261</v>
+      </c>
+      <c r="AB6" t="s">
+        <v>262</v>
+      </c>
+      <c r="AC6" t="s">
+        <v>263</v>
+      </c>
+      <c r="AD6" t="s">
+        <v>264</v>
+      </c>
+      <c r="AE6" t="s">
         <v>180</v>
       </c>
-      <c r="Y6" t="s">
-        <v>179</v>
-      </c>
-      <c r="Z6" t="s">
-        <v>181</v>
-      </c>
-      <c r="AA6" t="s">
-        <v>244</v>
-      </c>
-      <c r="AB6" t="s">
-        <v>245</v>
-      </c>
-      <c r="AC6" t="s">
-        <v>246</v>
-      </c>
-      <c r="AD6" t="s">
-        <v>247</v>
-      </c>
-      <c r="AE6" t="s">
-        <v>179</v>
-      </c>
       <c r="AF6" t="s">
         <v>172</v>
       </c>
@@ -16885,7 +16938,7 @@
         <v>172</v>
       </c>
       <c r="CY6" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="CZ6" t="s">
         <v>172</v>
@@ -16903,7 +16956,7 @@
         <v>172</v>
       </c>
       <c r="DE6" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="DF6" t="s">
         <v>172</v>
@@ -16933,7 +16986,7 @@
         <v>172</v>
       </c>
       <c r="DO6" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="DP6" t="s">
         <v>172</v>
@@ -16945,25 +16998,25 @@
         <v>172</v>
       </c>
       <c r="DS6" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="DT6" t="s">
         <v>170</v>
       </c>
       <c r="DU6" t="s">
-        <v>234</v>
+        <v>247</v>
       </c>
       <c r="DV6" t="s">
-        <v>235</v>
+        <v>248</v>
       </c>
       <c r="DW6" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="DX6" t="s">
         <v>171</v>
       </c>
       <c r="DY6" t="s">
-        <v>173</v>
+        <v>265</v>
       </c>
       <c r="DZ6" t="s">
         <v>172</v>
@@ -17026,52 +17079,52 @@
         <v>172</v>
       </c>
       <c r="ET6" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="EU6" t="s">
         <v>170</v>
       </c>
       <c r="EV6" t="s">
-        <v>234</v>
+        <v>247</v>
       </c>
       <c r="EW6" t="s">
+        <v>182</v>
+      </c>
+      <c r="EX6" t="s">
+        <v>172</v>
+      </c>
+      <c r="EY6" t="s">
+        <v>172</v>
+      </c>
+      <c r="EZ6" t="s">
+        <v>172</v>
+      </c>
+      <c r="FA6" t="s">
+        <v>172</v>
+      </c>
+      <c r="FB6" t="s">
+        <v>187</v>
+      </c>
+      <c r="FC6" t="s">
         <v>181</v>
       </c>
-      <c r="EX6" t="s">
-        <v>172</v>
-      </c>
-      <c r="EY6" t="s">
-        <v>172</v>
-      </c>
-      <c r="EZ6" t="s">
-        <v>172</v>
-      </c>
-      <c r="FA6" t="s">
-        <v>172</v>
-      </c>
-      <c r="FB6" t="s">
-        <v>186</v>
-      </c>
-      <c r="FC6" t="s">
+      <c r="FD6" t="s">
         <v>180</v>
       </c>
-      <c r="FD6" t="s">
-        <v>179</v>
-      </c>
       <c r="FE6" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="FF6" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="FG6" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="FH6" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="FI6" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="FJ6" t="s">
         <v>172</v>
@@ -17080,31 +17133,31 @@
         <v>172</v>
       </c>
       <c r="FL6" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="FM6" t="s">
         <v>172</v>
       </c>
       <c r="FN6" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="FO6" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="FP6" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="FQ6" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="FR6" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="FS6" t="s">
         <v>170</v>
       </c>
       <c r="FT6" t="s">
-        <v>248</v>
+        <v>266</v>
       </c>
       <c r="FU6" t="s">
         <v>172</v>
@@ -17113,13 +17166,13 @@
         <v>172</v>
       </c>
       <c r="FW6" t="s">
-        <v>225</v>
+        <v>232</v>
       </c>
       <c r="FX6" t="s">
         <v>172</v>
       </c>
       <c r="FY6" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="FZ6" t="s">
         <v>172</v>
@@ -19672,7 +19725,7 @@
         <v>172</v>
       </c>
       <c r="AMR6" t="s">
-        <v>203</v>
+        <v>208</v>
       </c>
     </row>
   </sheetData>
